--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -74,7 +74,7 @@
     <t>23.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 9:27 AM</t>
+    <t>Monday, 9 June, 2025 9:28 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -44,22 +44,46 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BISOLOCK-D 10/25MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
     <t>25.7400</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
   </si>
   <si>
     <t>STREPTOQUIN 20 TABLETS</t>
@@ -74,7 +98,31 @@
     <t>23.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 9:28 AM</t>
+    <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>40.5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كريم شعر ايفا 85مل </t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>Monday, 9 June, 2025 9:57 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -769,38 +817,170 @@
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>48.740000000000002</v>
-      </c>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
         <v>21</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>16</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
         <v>22</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
         <v>23</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c t="s" r="Q9" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>24</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>30</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>33</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>34</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>35</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>235.24000000000001</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>37</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>38</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>39</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -819,10 +999,30 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -122,7 +122,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 9:57 AM</t>
+    <t>Monday, 9 June, 2025 10:38 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>HEPAMARIN 140MG 30 CAPSULE</t>
   </si>
   <si>
@@ -98,6 +110,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>ZANOGLIDE 4/30 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
   </si>
   <si>
@@ -107,22 +131,40 @@
     <t>40.5000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كريم شعر ايفا 85مل </t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
     <t>50.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 10:38 AM</t>
+    <t>Monday, 9 June, 2025 10:43 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -829,7 +871,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -839,14 +881,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -862,7 +904,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -872,14 +914,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>28</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -895,7 +937,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -905,11 +947,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -921,20 +963,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -945,42 +987,174 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>235.24000000000001</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>37</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>28</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>38</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>39</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>12</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>41</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>12</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>41</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>45</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>48</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>41</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>49</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>291.77999999999997</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>51</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>52</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>53</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1019,10 +1193,30 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -164,7 +164,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 10:43 AM</t>
+    <t>Monday, 9 June, 2025 11:00 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BISOLOCK-D 10/25MG 20 F.C.TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -95,9 +107,6 @@
     <t>75.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -116,9 +125,6 @@
     <t>0:2</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>33.6600</t>
   </si>
   <si>
@@ -164,7 +170,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 11:00 AM</t>
+    <t>Monday, 9 June, 2025 11:02 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -838,7 +844,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -848,14 +854,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -888,7 +894,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -904,7 +910,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -914,14 +920,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -937,7 +943,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -947,11 +953,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -963,14 +969,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -980,14 +986,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -996,14 +1002,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1013,14 +1019,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1029,31 +1035,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1062,7 +1068,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1075,18 +1081,18 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1095,66 +1101,99 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>49</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>50</v>
       </c>
-      <c t="s" r="Q16" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>291.77999999999997</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>43</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>51</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
         <v>52</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>393.77999999999997</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
         <v>53</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>54</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>55</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1213,10 +1252,15 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -170,7 +170,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 11:02 AM</t>
+    <t>Monday, 9 June, 2025 11:18 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BRAVAMAX 200MG 10 TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -107,6 +116,18 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -140,9 +161,6 @@
     <t>حبايه</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
@@ -170,7 +188,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 11:18 AM</t>
+    <t>Monday, 9 June, 2025 11:20 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -877,7 +895,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -887,14 +905,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -903,14 +921,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -920,11 +938,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>20</v>
@@ -936,14 +954,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -960,7 +978,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -976,7 +994,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -986,14 +1004,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1002,31 +1020,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1042,7 +1060,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1052,11 +1070,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1068,31 +1086,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1108,13 +1126,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1125,7 +1143,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1141,59 +1159,125 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>52</v>
       </c>
-      <c t="s" r="Q17" s="12">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>12</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>36</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>53</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>393.77999999999997</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
-        <v>53</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
-        <v>54</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>55</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>56</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>36</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>57</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>559.77999999999997</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>59</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>60</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>61</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1257,10 +1341,20 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -107,6 +107,30 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>-17.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>HEPAMARIN 140MG 30 CAPSULE</t>
   </si>
   <si>
@@ -116,6 +140,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
   </si>
   <si>
@@ -128,6 +161,24 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>RELAT HAIR SERUM 60 ML</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>225.0000</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -140,6 +191,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>ZANOGLIDE 4/30 MG 30 TAB</t>
   </si>
   <si>
@@ -173,22 +236,31 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t xml:space="preserve">كريم شعر ايفا 85مل </t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
     <t>50.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 11:20 AM</t>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Monday, 9 June, 2025 11:39 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -994,7 +1066,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1004,14 +1076,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1020,28 +1092,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1053,14 +1125,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1077,7 +1149,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1093,7 +1165,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1103,14 +1175,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1126,24 +1198,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1152,7 +1224,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1165,18 +1237,18 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1185,7 +1257,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1198,15 +1270,15 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1218,66 +1290,297 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>61</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>62</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>64</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>65</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>14</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>559.77999999999997</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
-        <v>59</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
-        <v>60</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
-        <v>61</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>67</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>16</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>68</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>70</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>12</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>47</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>71</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>12</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>47</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>74</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>77</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>76</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>47</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>78</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>80</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>16</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>47</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>81</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>1159.6099999999999</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>83</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>84</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>85</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1351,10 +1654,45 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -260,7 +260,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 11:39 AM</t>
+    <t>Monday, 9 June, 2025 11:46 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -131,6 +131,21 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>HEPAMARIN 140MG 30 CAPSULE</t>
   </si>
   <si>
@@ -152,9 +167,6 @@
     <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>44.00</t>
   </si>
   <si>
@@ -194,24 +206,21 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:1</t>
+    <t>4:0</t>
   </si>
   <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>ZANOGLIDE 4/30 MG 30 TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
     <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
   </si>
   <si>
@@ -236,15 +245,15 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كريم شعر ايفا 85مل </t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t xml:space="preserve">كريم شعر ايفا 85مل </t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -260,7 +269,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 11:46 AM</t>
+    <t>Monday, 9 June, 2025 11:48 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1132,21 +1141,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1158,7 +1167,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1175,11 +1184,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1191,28 +1200,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1224,7 +1233,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1237,15 +1246,15 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1257,7 +1266,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1274,11 +1283,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1290,14 +1299,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1314,7 +1323,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1373,14 +1382,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1389,14 +1398,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1406,11 +1415,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1429,13 +1438,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1446,7 +1455,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1468,7 +1477,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1479,7 +1488,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1488,31 +1497,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1521,20 +1530,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1549,38 +1558,71 @@
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1159.6099999999999</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>83</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>16</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>42</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>84</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1243.4400000000001</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>86</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>87</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>88</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1689,10 +1731,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -269,7 +269,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 11:48 AM</t>
+    <t>Monday, 9 June, 2025 12:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>GLIMET 2.5/400 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -131,6 +143,15 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>GUAVA SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>HEDERA HELIX SYRAP</t>
   </si>
   <si>
@@ -203,6 +224,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -215,7 +248,13 @@
     <t>33.6600</t>
   </si>
   <si>
-    <t>0:2</t>
+    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
   </si>
   <si>
     <t>ZANOGLIDE 4/30 MG 30 TAB</t>
@@ -251,9 +290,6 @@
     <t xml:space="preserve">كريم شعر ايفا 85مل </t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -269,7 +305,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 12:00 PM</t>
+    <t>Monday, 9 June, 2025 12:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1108,7 +1144,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1118,11 +1154,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1134,28 +1170,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1167,14 +1203,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1184,11 +1220,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1200,28 +1236,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1233,28 +1269,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1266,14 +1302,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1283,11 +1319,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1299,7 +1335,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1312,15 +1348,15 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1332,14 +1368,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1356,7 +1392,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1372,7 +1408,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1382,14 +1418,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1398,7 +1434,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1415,11 +1451,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1431,14 +1467,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1448,14 +1484,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1464,31 +1500,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1497,31 +1533,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1530,31 +1566,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1576,7 +1612,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1587,42 +1623,174 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>86</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>12</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>49</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>87</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>89</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>12</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>49</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>90</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>92</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>72</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>49</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>93</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1243.4400000000001</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>86</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
-        <v>87</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
-        <v>88</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>95</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>16</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>49</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>96</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1424.4400000000001</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>98</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>99</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>100</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1736,10 +1904,30 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
     <t>GLIMET 2.5/400 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -203,6 +212,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>PROSTRIDE 5MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>183.00</t>
+  </si>
+  <si>
+    <t>60.3900</t>
+  </si>
+  <si>
     <t>RELAT HAIR SERUM 60 ML</t>
   </si>
   <si>
@@ -224,6 +242,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -287,6 +314,18 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>شامبو كلير 1 كيس</t>
+  </si>
+  <si>
+    <t>117:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كريم شعر ايفا 85مل </t>
   </si>
   <si>
@@ -305,7 +344,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 12:14 PM</t>
+    <t>Monday, 9 June, 2025 12:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1144,7 +1183,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1154,14 +1193,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1170,14 +1209,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1210,7 +1249,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1243,21 +1282,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1269,20 +1308,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1342,13 +1381,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1381,7 +1420,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1441,7 +1480,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1451,11 +1490,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1467,14 +1506,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1484,11 +1523,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1500,14 +1539,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1517,14 +1556,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1533,7 +1572,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1550,14 +1589,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1566,14 +1605,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1583,14 +1622,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1599,14 +1638,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1616,14 +1655,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1632,31 +1671,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1665,31 +1704,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1705,13 +1744,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1722,7 +1761,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1738,13 +1777,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1755,42 +1794,174 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>98</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>12</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>52</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>99</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>101</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>102</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>52</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>103</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>105</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>81</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>52</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>106</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1424.4400000000001</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>98</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>99</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
-        <v>100</v>
-      </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>108</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>16</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>52</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>109</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1607.27</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>111</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>112</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>113</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1924,10 +2095,30 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -344,7 +344,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 12:18 PM</t>
+    <t>Monday, 9 June, 2025 12:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -230,6 +230,15 @@
     <t>225.0000</t>
   </si>
   <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -344,7 +353,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 12:21 PM</t>
+    <t>Monday, 9 June, 2025 12:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1546,7 +1555,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1556,11 +1565,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -1572,14 +1581,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1612,7 +1621,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1622,14 +1631,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1638,14 +1647,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1655,14 +1664,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1671,14 +1680,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1695,7 +1704,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1711,7 +1720,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1721,14 +1730,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1737,14 +1746,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1754,11 +1763,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -1777,13 +1786,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1794,7 +1803,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1827,7 +1836,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1843,7 +1852,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1853,14 +1862,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1869,14 +1878,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1893,7 +1902,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1909,7 +1918,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1930,38 +1939,71 @@
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1607.27</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>111</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>16</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>52</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>112</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1630.04</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>114</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>115</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>116</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2115,10 +2157,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -107,6 +119,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>EFEMYO OPHTH. SUSP. 10 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
@@ -197,12 +218,6 @@
     <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
     <t>NORGESIC 20 TAB.</t>
   </si>
   <si>
@@ -353,7 +368,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 12:22 PM</t>
+    <t>Monday, 9 June, 2025 12:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1176,7 +1191,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1185,14 +1200,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1202,14 +1217,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1218,14 +1233,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1235,14 +1250,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1275,7 +1290,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1291,7 +1306,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1301,11 +1316,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1317,28 +1332,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1350,14 +1365,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1367,11 +1382,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1383,28 +1398,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1416,28 +1431,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1449,14 +1464,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1466,11 +1481,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1482,31 +1497,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1515,7 +1530,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1532,11 +1547,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1548,14 +1563,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1565,11 +1580,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -1581,14 +1596,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1598,14 +1613,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1614,14 +1629,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1631,11 +1646,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -1647,14 +1662,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1664,14 +1679,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1680,14 +1695,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1697,14 +1712,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1713,14 +1728,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1730,11 +1745,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1746,14 +1761,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1763,14 +1778,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1779,14 +1794,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1796,14 +1811,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1812,31 +1827,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1845,31 +1860,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1878,31 +1893,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1911,31 +1926,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1944,66 +1959,132 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>113</v>
       </c>
-      <c t="s" r="Q36" s="12">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>89</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>59</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>114</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1630.04</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>114</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
-        <v>115</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>116</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>16</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>59</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>117</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1681.96</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>119</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>120</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>121</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2162,10 +2243,20 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -368,7 +368,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 12:23 PM</t>
+    <t>Monday, 9 June, 2025 12:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -326,7 +326,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -368,7 +368,16 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 12:26 PM</t>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>Monday, 9 June, 2025 12:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1917,7 +1926,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2053,38 +2062,71 @@
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1681.96</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>119</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>12</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>59</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>120</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>121</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1692.96</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>122</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>123</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>124</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2253,10 +2295,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -107,6 +107,18 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -257,9 +269,6 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>46.00</t>
   </si>
   <si>
@@ -326,9 +335,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -377,7 +383,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 12:39 PM</t>
+    <t>Monday, 9 June, 2025 12:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1216,7 +1222,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1226,14 +1232,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1242,14 +1248,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1266,7 +1272,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1275,14 +1281,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1299,7 +1305,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1308,14 +1314,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1332,7 +1338,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1348,7 +1354,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1358,11 +1364,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1374,14 +1380,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1391,11 +1397,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1407,28 +1413,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1440,28 +1446,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1473,7 +1479,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1490,11 +1496,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1506,28 +1512,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1539,7 +1545,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1552,15 +1558,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1572,14 +1578,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1589,14 +1595,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1605,14 +1611,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1622,14 +1628,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1638,14 +1644,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1655,14 +1661,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1671,14 +1677,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1711,7 +1717,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1744,7 +1750,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1754,14 +1760,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1770,14 +1776,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1787,14 +1793,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1803,14 +1809,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1827,7 +1833,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1843,7 +1849,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1853,14 +1859,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1869,14 +1875,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1886,11 +1892,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -1909,13 +1915,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1926,7 +1932,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1948,7 +1954,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1956,10 +1962,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1968,31 +1974,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>89</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2001,31 +2007,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2034,28 +2040,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2067,66 +2073,99 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1692.96</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>121</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>12</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>63</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>122</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>123</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1704.96</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
         <v>124</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>125</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>126</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2300,10 +2339,15 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CYCLOFLEX 5 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -227,6 +236,18 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
   </si>
   <si>
@@ -287,9 +308,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -311,9 +329,6 @@
     <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
   </si>
   <si>
-    <t>66.00</t>
-  </si>
-  <si>
     <t>66.0000</t>
   </si>
   <si>
@@ -335,13 +350,19 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>15:0</t>
   </si>
   <si>
     <t>شامبو كلير 1 كيس</t>
@@ -383,7 +404,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 12:40 PM</t>
+    <t>Monday, 9 June, 2025 1:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1222,7 +1243,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1232,14 +1253,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1248,14 +1269,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1272,7 +1293,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1288,7 +1309,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1298,14 +1319,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1314,14 +1335,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1331,14 +1352,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>50</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1354,7 +1375,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1364,14 +1385,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1380,14 +1401,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1420,7 +1441,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1453,21 +1474,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1479,20 +1500,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1552,21 +1573,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1578,7 +1599,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1595,14 +1616,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1611,31 +1632,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1644,7 +1665,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1661,11 +1682,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1677,14 +1698,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1694,11 +1715,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1710,14 +1731,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1727,14 +1748,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1743,14 +1764,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1760,11 +1781,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -1776,14 +1797,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1800,7 +1821,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1816,7 +1837,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1826,14 +1847,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1842,14 +1863,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1859,11 +1880,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1875,14 +1896,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1892,14 +1913,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1908,14 +1929,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1925,14 +1946,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1941,31 +1962,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>96</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1981,13 +2002,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1998,7 +2019,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2014,24 +2035,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2040,31 +2061,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>117</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2080,24 +2101,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2106,66 +2127,132 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1704.96</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>124</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>125</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>16</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>66</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>126</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>128</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>12</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>66</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>129</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1890.96</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>131</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>132</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>133</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2344,10 +2431,20 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -404,7 +404,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 1:40 PM</t>
+    <t>Monday, 9 June, 2025 1:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -164,6 +164,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>GAPTIN 300 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -227,6 +239,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>NEURONTIN 300MG 20 CAPS</t>
   </si>
   <si>
@@ -359,9 +380,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>15:0</t>
   </si>
   <si>
@@ -404,7 +422,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 1:43 PM</t>
+    <t>Monday, 9 June, 2025 3:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1375,7 +1393,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1385,11 +1403,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1401,14 +1419,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1425,7 +1443,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1441,7 +1459,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1451,11 +1469,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1467,14 +1485,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1484,11 +1502,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1500,28 +1518,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1533,28 +1551,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1566,7 +1584,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1583,11 +1601,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1599,14 +1617,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1616,14 +1634,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1639,21 +1657,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1665,7 +1683,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1682,14 +1700,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1698,31 +1716,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1731,7 +1749,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1748,11 +1766,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1764,14 +1782,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1781,11 +1799,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -1797,14 +1815,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1814,14 +1832,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1830,14 +1848,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1847,11 +1865,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -1863,14 +1881,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1880,14 +1898,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1896,14 +1914,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1920,7 +1938,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1936,7 +1954,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1946,11 +1964,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1962,14 +1980,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1979,14 +1997,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1995,14 +2013,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2012,14 +2030,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2028,31 +2046,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2061,31 +2079,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>117</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2101,24 +2119,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2127,31 +2145,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2160,20 +2178,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2184,7 +2202,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2200,13 +2218,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2221,38 +2239,104 @@
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1890.96</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>131</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>16</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>70</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>132</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>133</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>134</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>12</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>70</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>135</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1962.54</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>137</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>138</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>139</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2441,10 +2525,20 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -371,7 +371,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>15.0000</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -422,7 +422,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 3:16 PM</t>
+    <t>Monday, 9 June, 2025 3:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2133,10 +2133,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>120</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>40</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2306,7 +2306,7 @@
     </row>
     <row r="45" ht="24.75" customHeight="1">
       <c r="P45" s="13">
-        <v>1962.54</v>
+        <v>1968.54</v>
       </c>
       <c r="Q45" s="13"/>
     </row>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -422,7 +422,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 3:17 PM</t>
+    <t>Monday, 9 June, 2025 3:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -395,6 +395,15 @@
     <t>5.0000</t>
   </si>
   <si>
+    <t>شامبو كلير حريمي 180مل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كريم شعر ايفا 85مل </t>
   </si>
   <si>
@@ -422,7 +431,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 3:20 PM</t>
+    <t>Monday, 9 June, 2025 3:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2218,7 +2227,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2251,7 +2260,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2284,7 +2293,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2305,38 +2314,71 @@
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1968.54</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>137</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>12</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>70</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>138</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2048.54</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>140</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>141</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>142</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2535,10 +2577,15 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -395,7 +395,7 @@
     <t>5.0000</t>
   </si>
   <si>
-    <t>شامبو كلير حريمي 180مل</t>
+    <t>شامبو كلير للرجال 180مل</t>
   </si>
   <si>
     <t>80.00</t>
@@ -431,7 +431,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 3:36 PM</t>
+    <t>Monday, 9 June, 2025 3:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2227,7 +2227,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -431,7 +431,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 3:41 PM</t>
+    <t>Monday, 9 June, 2025 3:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -431,7 +431,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 3:45 PM</t>
+    <t>Monday, 9 June, 2025 4:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -131,13 +131,28 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>5:0</t>
+    <t>4:2</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
   </si>
   <si>
     <t>EFEMYO OPHTH. SUSP. 10 ML</t>
@@ -188,9 +203,6 @@
     <t>GLIMET 2.5/400 MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -308,6 +320,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -365,13 +386,25 @@
     <t>40.5000</t>
   </si>
   <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>7:0</t>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -380,7 +413,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>15:0</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>شامبو كلير 1 كيس</t>
@@ -431,7 +464,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 4:02 PM</t>
+    <t>Monday, 9 June, 2025 5:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1320,7 +1353,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1329,14 +1362,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1346,14 +1379,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1362,14 +1395,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1379,14 +1412,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1419,7 +1452,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1428,14 +1461,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1445,11 +1478,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1461,14 +1494,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1478,14 +1511,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1494,14 +1527,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1511,11 +1544,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1527,14 +1560,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1544,11 +1577,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1560,28 +1593,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1593,28 +1626,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1626,14 +1659,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1643,14 +1676,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1659,14 +1692,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1676,14 +1709,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1692,14 +1725,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1709,14 +1742,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1738,18 +1771,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1758,7 +1791,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1771,15 +1804,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1791,14 +1824,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1808,14 +1841,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1824,14 +1857,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1841,14 +1874,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1857,14 +1890,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1874,14 +1907,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1890,14 +1923,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1907,11 +1940,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -1923,14 +1956,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1940,14 +1973,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1956,14 +1989,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1973,14 +2006,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1989,14 +2022,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2013,7 +2046,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2029,7 +2062,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2039,11 +2072,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2055,14 +2088,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2072,14 +2105,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2088,14 +2121,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2105,14 +2138,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2121,31 +2154,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2154,31 +2187,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>123</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2187,31 +2220,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2220,31 +2253,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2253,31 +2286,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2286,31 +2319,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2319,66 +2352,165 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2048.54</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>140</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>141</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>142</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>89</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>74</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>143</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>145</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>16</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>74</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>146</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>148</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>12</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>74</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>149</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2184.4200000000001</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>151</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>152</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>153</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2582,10 +2714,25 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -119,6 +119,21 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>CYCLOFLEX 5 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -293,6 +308,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>PROSTRIDE 5MG 30 CAPS.</t>
   </si>
   <si>
@@ -347,6 +371,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -464,7 +497,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 5:00 PM</t>
+    <t>Monday, 9 June, 2025 5:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1303,7 +1336,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1313,14 +1346,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1329,14 +1362,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1346,14 +1379,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1386,7 +1419,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1395,14 +1428,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1412,14 +1445,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1428,14 +1461,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1445,14 +1478,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1485,7 +1518,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1494,14 +1527,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1511,11 +1544,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1527,14 +1560,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1544,14 +1577,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1560,14 +1593,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1577,11 +1610,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1593,14 +1626,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1610,11 +1643,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1626,20 +1659,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1666,21 +1699,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1692,14 +1725,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1709,14 +1742,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1725,14 +1758,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1742,14 +1775,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1758,14 +1791,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1775,14 +1808,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1791,7 +1824,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1804,18 +1837,18 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1824,7 +1857,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1837,15 +1870,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1857,14 +1890,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1874,14 +1907,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1890,14 +1923,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1907,11 +1940,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1923,14 +1956,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1940,11 +1973,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -1956,14 +1989,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1973,11 +2006,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1989,14 +2022,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2006,11 +2039,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2022,14 +2055,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2039,14 +2072,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2055,14 +2088,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2072,14 +2105,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2088,14 +2121,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2105,14 +2138,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2121,14 +2154,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2138,14 +2171,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2154,14 +2187,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2171,14 +2204,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2187,14 +2220,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2204,14 +2237,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2220,31 +2253,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2253,31 +2286,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2286,31 +2319,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>134</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2319,31 +2352,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2352,31 +2385,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2385,31 +2418,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2418,31 +2451,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2451,66 +2484,165 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2184.4200000000001</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>151</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>152</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>153</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>94</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>79</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>154</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>156</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>16</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>79</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>157</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>159</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>12</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>79</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>160</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2297.0100000000002</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>162</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>163</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>164</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2729,10 +2861,25 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -497,7 +497,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 5:24 PM</t>
+    <t>Monday, 9 June, 2025 5:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -497,7 +497,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 5:32 PM</t>
+    <t>Monday, 9 June, 2025 5:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -95,6 +95,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>142.00</t>
+  </si>
+  <si>
+    <t>142.0000</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -497,7 +506,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 5:35 PM</t>
+    <t>Monday, 9 June, 2025 5:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1270,7 +1279,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1280,14 +1289,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1296,14 +1305,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1313,11 +1322,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>20</v>
@@ -1329,14 +1338,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1346,14 +1355,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1362,14 +1371,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1379,14 +1388,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1402,7 +1411,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1412,14 +1421,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1428,14 +1437,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1445,14 +1454,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1461,14 +1470,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1485,7 +1494,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1501,7 +1510,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1511,14 +1520,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1527,14 +1536,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1544,14 +1553,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1560,14 +1569,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1600,7 +1609,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1617,7 +1626,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1633,7 +1642,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1666,7 +1675,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1699,21 +1708,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1725,20 +1734,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1765,7 +1774,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1782,7 +1791,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1798,7 +1807,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1815,7 +1824,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1831,7 +1840,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1848,7 +1857,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1857,7 +1866,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1870,18 +1879,18 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1890,7 +1899,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1903,15 +1912,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1930,7 +1939,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1940,7 +1949,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -1963,7 +1972,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1973,14 +1982,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1996,7 +2005,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2013,7 +2022,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2029,7 +2038,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2046,7 +2055,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2062,7 +2071,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2079,7 +2088,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2095,7 +2104,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2112,7 +2121,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2128,7 +2137,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2161,7 +2170,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2194,7 +2203,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2211,7 +2220,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2227,7 +2236,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2237,14 +2246,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2253,14 +2262,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2270,14 +2279,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2286,14 +2295,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2303,14 +2312,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2319,14 +2328,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2336,11 +2345,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2359,24 +2368,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2385,20 +2394,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2406,10 +2415,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>142</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2431,7 +2440,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2439,7 +2448,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>145</v>
@@ -2458,24 +2467,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>94</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2484,20 +2493,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2508,7 +2517,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2524,13 +2533,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2557,13 +2566,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2590,13 +2599,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2611,38 +2620,71 @@
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2297.0100000000002</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>162</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>12</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>82</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
         <v>163</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>164</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2439.0100000000002</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>165</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>166</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>167</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2876,10 +2918,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -455,7 +455,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>22:0</t>
   </si>
   <si>
     <t>شامبو كلير 1 كيس</t>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>148</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="53" ht="24.75" customHeight="1">
       <c r="P53" s="13">
-        <v>2439.0100000000002</v>
+        <v>2445.0100000000002</v>
       </c>
       <c r="Q53" s="13"/>
     </row>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -188,6 +188,12 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
@@ -275,6 +281,9 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
     <t>MOVEASY 5 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -284,6 +293,12 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>NEURONTIN 300MG 20 CAPS</t>
   </si>
   <si>
@@ -302,9 +317,6 @@
     <t>132.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
   </si>
   <si>
@@ -380,6 +392,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>TOPRO 10 SACHETS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -416,6 +437,18 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8688:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>ZANOGLIDE 4/30 MG 30 TAB</t>
   </si>
   <si>
@@ -452,9 +485,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>22:0</t>
   </si>
   <si>
@@ -506,7 +536,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 5:36 PM</t>
+    <t>Monday, 9 June, 2025 5:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1553,14 +1583,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1569,14 +1599,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1586,14 +1616,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1602,14 +1632,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1619,11 +1649,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1635,14 +1665,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1652,14 +1682,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1668,14 +1698,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1685,11 +1715,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1701,14 +1731,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1718,11 +1748,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1734,28 +1764,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1767,28 +1797,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1800,14 +1830,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1817,14 +1847,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1833,14 +1863,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1850,11 +1880,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1866,14 +1896,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1883,14 +1913,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1899,28 +1929,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1932,14 +1962,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1949,11 +1979,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1965,14 +1995,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1982,14 +2012,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1998,31 +2028,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2031,7 +2061,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2048,11 +2078,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2064,14 +2094,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2081,14 +2111,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2097,14 +2127,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2114,14 +2144,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2130,14 +2160,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2147,14 +2177,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2163,14 +2193,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2180,11 +2210,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2196,14 +2226,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2213,14 +2243,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2229,14 +2259,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2246,14 +2276,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2262,14 +2292,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2279,14 +2309,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2295,14 +2325,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2312,11 +2342,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2328,14 +2358,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2345,7 +2375,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2361,14 +2391,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2378,14 +2408,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2394,31 +2424,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>97</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2427,31 +2457,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2460,31 +2490,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>148</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2493,31 +2523,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2526,7 +2556,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2539,18 +2569,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2559,31 +2589,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2592,31 +2622,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2625,7 +2655,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2638,53 +2668,218 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>159</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>160</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>84</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>161</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>163</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>16</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>84</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
         <v>164</v>
       </c>
-      <c t="s" r="Q52" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2445.0100000000002</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
         <v>165</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>166</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>95</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>84</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>167</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>169</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>16</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>84</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>170</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>172</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>12</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>84</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>173</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2664.9299999999998</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>175</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>176</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>177</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2923,10 +3118,35 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -536,7 +536,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 5:54 PM</t>
+    <t>Monday, 9 June, 2025 6:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2134,7 +2134,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -338,6 +338,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>PROSTRIDE 5MG 30 CAPS.</t>
   </si>
   <si>
@@ -410,6 +419,15 @@
     <t>40.5900</t>
   </si>
   <si>
+    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -422,9 +440,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -440,13 +455,16 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8688:0</t>
+    <t>8682:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>ZANOGLIDE 4/30 MG 30 TAB</t>
@@ -482,10 +500,25 @@
     <t>13:0</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>22:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شامبو بانتين 190 مللي </t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
   </si>
   <si>
     <t>شامبو كلير 1 كيس</t>
@@ -2134,7 +2167,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2167,7 +2200,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2184,7 +2217,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2200,7 +2233,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2217,7 +2250,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2233,7 +2266,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2250,7 +2283,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2266,7 +2299,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2283,7 +2316,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2299,7 +2332,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2332,7 +2365,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2349,7 +2382,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2365,7 +2398,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2382,7 +2415,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2398,7 +2431,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2415,7 +2448,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2445,10 +2478,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2457,14 +2490,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2474,7 +2507,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2497,7 +2530,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2507,14 +2540,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2523,14 +2556,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2540,14 +2573,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2563,7 +2596,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2573,14 +2606,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2589,31 +2622,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2622,31 +2655,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>156</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2655,14 +2688,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2672,14 +2705,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>158</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2688,14 +2721,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2709,10 +2742,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>162</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>95</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2728,7 +2761,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2742,10 +2775,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2754,14 +2787,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2771,14 +2804,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2787,7 +2820,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2804,11 +2837,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2820,14 +2853,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2837,49 +2870,181 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>174</v>
       </c>
-      <c t="s" r="Q57" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2664.9299999999998</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>16</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>84</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
         <v>175</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>176</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>177</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>95</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>84</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>178</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>180</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>16</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>84</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>181</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>183</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>12</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>84</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>184</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2895.9299999999998</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>186</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>187</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>188</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3143,10 +3308,30 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -329,13 +329,25 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>24.0000</t>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
   </si>
   <si>
     <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
@@ -569,7 +581,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 6:23 PM</t>
+    <t>Monday, 9 June, 2025 6:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2167,7 +2179,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2177,14 +2189,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2193,14 +2205,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2210,14 +2222,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2226,14 +2238,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2243,14 +2255,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2259,14 +2271,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2276,11 +2288,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2292,14 +2304,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2309,11 +2321,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2325,14 +2337,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2342,11 +2354,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2358,14 +2370,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2375,14 +2387,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2391,14 +2403,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2408,14 +2420,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2424,14 +2436,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2441,11 +2453,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2457,14 +2469,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2474,11 +2486,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2490,14 +2502,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2507,14 +2519,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2523,14 +2535,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2540,14 +2552,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2556,14 +2568,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2573,11 +2585,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2589,14 +2601,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2606,14 +2618,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2622,14 +2634,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2639,14 +2651,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2655,14 +2667,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2672,14 +2684,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>155</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2695,24 +2707,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2721,31 +2733,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>162</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2754,14 +2766,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2771,14 +2783,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>137</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2787,7 +2799,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2804,11 +2816,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>166</v>
@@ -2827,7 +2839,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2841,10 +2853,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2853,14 +2865,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2870,14 +2882,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>95</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2886,7 +2898,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2903,11 +2915,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2919,14 +2931,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2936,14 +2948,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2952,7 +2964,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2969,11 +2981,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2985,14 +2997,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3002,49 +3014,115 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>184</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>16</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>84</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>185</v>
       </c>
-      <c t="s" r="Q61" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2895.9299999999998</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
         <v>186</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>187</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>12</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>84</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
         <v>188</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>2965.9299999999998</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>190</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>191</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>192</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3328,10 +3406,20 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -393,6 +393,12 @@
   </si>
   <si>
     <t>54.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
   </si>
   <si>
     <t>STREPTOQUIN 20 TABLETS</t>
@@ -2410,7 +2416,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2424,10 +2430,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2436,14 +2442,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2453,11 +2459,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2469,14 +2475,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2486,14 +2492,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2502,14 +2508,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2519,14 +2525,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2535,14 +2541,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2552,14 +2558,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2568,14 +2574,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2589,7 +2595,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2601,14 +2607,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2618,14 +2624,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2634,14 +2640,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2651,14 +2657,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2674,7 +2680,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2684,14 +2690,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2700,14 +2706,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2717,14 +2723,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2733,14 +2739,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2750,11 +2756,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2766,31 +2772,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2799,14 +2805,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2816,14 +2822,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>166</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2832,7 +2838,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2849,14 +2855,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>141</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2882,14 +2888,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2905,7 +2911,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2915,14 +2921,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2931,14 +2937,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2948,14 +2954,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2964,14 +2970,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2981,14 +2987,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2997,14 +3003,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3014,11 +3020,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3030,14 +3036,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3047,11 +3053,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3063,14 +3069,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3080,49 +3086,82 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>189</v>
       </c>
-      <c t="s" r="Q63" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>2965.9299999999998</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>12</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>84</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
         <v>190</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>191</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2986.9299999999998</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
         <v>192</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>193</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>194</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3416,10 +3455,15 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -143,6 +143,21 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>CYCLOFLEX 5 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -284,6 +299,12 @@
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
     <t>MOVEASY 5 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -296,9 +317,6 @@
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>NEURONTIN 300MG 20 CAPS</t>
   </si>
   <si>
@@ -443,9 +461,6 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -467,9 +482,6 @@
     <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
   </si>
   <si>
-    <t>66.0000</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -515,7 +527,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجات 10 سم</t>
@@ -587,7 +599,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 6:26 PM</t>
+    <t>Monday, 9 June, 2025 6:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1492,7 +1504,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1502,14 +1514,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1518,14 +1530,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1535,14 +1547,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1575,7 +1587,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1584,14 +1596,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1601,14 +1613,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1617,14 +1629,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1634,14 +1646,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1650,14 +1662,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1667,14 +1679,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1707,7 +1719,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1716,14 +1728,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1733,11 +1745,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1749,14 +1761,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1766,14 +1778,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1782,14 +1794,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1799,11 +1811,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1815,14 +1827,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1832,11 +1844,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1848,20 +1860,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1888,21 +1900,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1914,14 +1926,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1931,11 +1943,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1947,7 +1959,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1964,14 +1976,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1980,14 +1992,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1997,11 +2009,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2013,14 +2025,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2030,14 +2042,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2046,14 +2058,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2063,14 +2075,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2086,21 +2098,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2112,7 +2124,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2129,14 +2141,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2145,28 +2157,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2185,7 +2197,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2195,11 +2207,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2211,14 +2223,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2228,14 +2240,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2244,14 +2256,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2261,14 +2273,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2284,7 +2296,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2301,7 +2313,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2317,7 +2329,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2334,7 +2346,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2350,7 +2362,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2383,7 +2395,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2416,7 +2428,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2430,10 +2442,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2442,14 +2454,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2459,14 +2471,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2475,14 +2487,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2492,14 +2504,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2515,7 +2527,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2532,7 +2544,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2548,7 +2560,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2581,7 +2593,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2591,11 +2603,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2614,7 +2626,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2631,7 +2643,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2647,7 +2659,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2657,14 +2669,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2673,14 +2685,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2690,7 +2702,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2713,7 +2725,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2723,14 +2735,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>157</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2739,14 +2751,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2756,14 +2768,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2772,14 +2784,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2789,14 +2801,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>161</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2812,24 +2824,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2838,31 +2850,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>168</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2871,31 +2883,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>143</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2904,7 +2916,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2917,15 +2929,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>172</v>
@@ -2944,13 +2956,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2958,10 +2970,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2970,31 +2982,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>95</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3003,7 +3015,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3016,15 +3028,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3036,31 +3048,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3069,7 +3081,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3082,15 +3094,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3102,66 +3114,132 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>190</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>16</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>89</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
         <v>191</v>
       </c>
-      <c t="s" r="Q64" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2986.9299999999998</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
         <v>192</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>193</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>12</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>89</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
         <v>194</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3109.9299999999998</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>196</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>197</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>198</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3460,10 +3538,20 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -599,7 +599,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 6:44 PM</t>
+    <t>Monday, 9 June, 2025 6:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -296,6 +296,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
@@ -599,7 +608,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 6:55 PM</t>
+    <t>Monday, 9 June, 2025 6:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1976,11 +1985,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1992,14 +2001,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2009,11 +2018,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2025,14 +2034,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2042,14 +2051,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2065,7 +2074,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2075,14 +2084,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2091,14 +2100,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2108,11 +2117,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2131,7 +2140,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2148,7 +2157,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2170,18 +2179,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2190,7 +2199,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2203,15 +2212,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2230,7 +2239,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2240,7 +2249,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2263,7 +2272,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2277,7 +2286,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2289,14 +2298,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2306,14 +2315,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2329,7 +2338,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2346,7 +2355,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2362,7 +2371,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2395,7 +2404,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2412,7 +2421,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2428,7 +2437,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2445,7 +2454,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2461,7 +2470,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2478,7 +2487,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2494,7 +2503,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2508,7 +2517,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2520,14 +2529,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2537,14 +2546,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2560,7 +2569,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2593,7 +2602,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2610,7 +2619,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2626,7 +2635,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2643,7 +2652,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2659,7 +2668,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2669,14 +2678,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2685,14 +2694,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2702,11 +2711,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2725,7 +2734,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2742,7 +2751,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2758,7 +2767,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2768,14 +2777,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2784,14 +2793,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2801,14 +2810,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2817,14 +2826,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2834,14 +2843,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2850,14 +2859,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2867,11 +2876,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2890,24 +2899,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2916,14 +2925,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2937,10 +2946,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>172</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2970,10 +2979,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>149</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2982,7 +2991,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2999,14 +3008,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3015,14 +3024,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3032,14 +3041,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>179</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3055,7 +3064,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3065,14 +3074,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3081,14 +3090,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3105,7 +3114,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3121,7 +3130,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3154,7 +3163,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3187,7 +3196,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3208,38 +3217,71 @@
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3109.9299999999998</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>196</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>12</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>89</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
         <v>197</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>198</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>3365.9299999999998</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>199</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>200</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>201</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3548,10 +3590,15 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -209,6 +209,18 @@
     <t>5:2</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
@@ -536,7 +548,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>16:0</t>
+    <t>51.0000</t>
   </si>
   <si>
     <t>سرنجات 10 سم</t>
@@ -608,7 +620,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 6:58 PM</t>
+    <t>Monday, 9 June, 2025 6:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1728,7 +1740,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1737,14 +1749,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1754,14 +1766,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>74</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1777,7 +1789,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1787,11 +1799,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1803,14 +1815,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1820,14 +1832,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1836,14 +1848,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1853,11 +1865,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1869,14 +1881,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1886,11 +1898,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1902,28 +1914,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1935,28 +1947,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1968,14 +1980,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1985,11 +1997,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2001,7 +2013,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2018,11 +2030,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2034,14 +2046,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2051,11 +2063,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2067,14 +2079,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2084,14 +2096,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2100,14 +2112,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2117,14 +2129,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2133,14 +2145,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2150,11 +2162,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2166,14 +2178,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2183,14 +2195,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2199,7 +2211,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2212,18 +2224,18 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2232,7 +2244,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2245,15 +2257,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2265,14 +2277,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2282,11 +2294,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2298,14 +2310,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2319,7 +2331,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2331,14 +2343,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2348,14 +2360,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2364,14 +2376,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2381,14 +2393,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2397,14 +2409,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2414,11 +2426,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2430,14 +2442,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2447,14 +2459,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2463,14 +2475,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2480,14 +2492,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2496,14 +2508,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2513,14 +2525,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2529,14 +2541,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2546,11 +2558,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2562,14 +2574,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2579,14 +2591,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2595,14 +2607,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2612,11 +2624,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2628,14 +2640,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2645,14 +2657,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2661,14 +2673,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2678,14 +2690,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2694,14 +2706,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2711,14 +2723,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2727,14 +2739,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2744,11 +2756,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2760,14 +2772,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2777,14 +2789,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2793,14 +2805,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2810,14 +2822,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2826,14 +2838,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2843,14 +2855,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2859,14 +2871,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2876,14 +2888,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2892,14 +2904,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2909,11 +2921,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -2925,20 +2937,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2949,7 +2961,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2965,24 +2977,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>175</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2991,7 +3003,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3004,18 +3016,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>152</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3024,7 +3036,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3037,18 +3049,18 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>179</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3057,31 +3069,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3090,20 +3102,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3114,7 +3126,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3130,24 +3142,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3156,28 +3168,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3189,28 +3201,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3222,66 +3234,99 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>3365.9299999999998</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>199</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>200</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>12</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>93</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
         <v>201</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3394.9299999999998</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>203</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>204</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>205</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3595,10 +3640,15 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>187.50</t>
+  </si>
+  <si>
+    <t>187.5000</t>
+  </si>
+  <si>
     <t>EFEMYO OPHTH. SUSP. 10 ML</t>
   </si>
   <si>
@@ -455,7 +464,7 @@
     <t>124.00</t>
   </si>
   <si>
-    <t>62.0000</t>
+    <t>124.0000</t>
   </si>
   <si>
     <t>TOPRO 10 SACHETS</t>
@@ -620,7 +629,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 6:59 PM</t>
+    <t>Monday, 9 June, 2025 7:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1657,7 +1666,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1690,7 +1699,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1700,14 +1709,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1716,14 +1725,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1733,14 +1742,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1749,14 +1758,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1766,14 +1775,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1782,14 +1791,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1799,14 +1808,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1815,14 +1824,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1855,7 +1864,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1872,7 +1881,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1888,7 +1897,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1921,7 +1930,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1954,21 +1963,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1980,20 +1989,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2020,7 +2029,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2063,11 +2072,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2079,14 +2088,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2096,11 +2105,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2112,14 +2121,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2129,14 +2138,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2152,7 +2161,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2162,14 +2171,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2178,14 +2187,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2195,11 +2204,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2218,7 +2227,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2235,7 +2244,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2257,18 +2266,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2277,7 +2286,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2290,15 +2299,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2317,7 +2326,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2327,7 +2336,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2350,7 +2359,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2364,7 +2373,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2376,14 +2385,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2393,14 +2402,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2416,7 +2425,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2433,7 +2442,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2449,7 +2458,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2482,7 +2491,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2499,7 +2508,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2515,7 +2524,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2532,7 +2541,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2548,7 +2557,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2565,7 +2574,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2581,7 +2590,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2595,7 +2604,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2607,14 +2616,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2624,14 +2633,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2647,7 +2656,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2713,7 +2722,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2730,7 +2739,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2746,7 +2755,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2789,11 +2798,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2812,7 +2821,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2829,7 +2838,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2845,7 +2854,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2855,14 +2864,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2871,14 +2880,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2888,14 +2897,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2904,14 +2913,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2921,14 +2930,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2937,14 +2946,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2954,11 +2963,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -2977,24 +2986,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3003,20 +3012,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3027,7 +3036,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3049,7 +3058,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3057,10 +3066,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>156</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3069,7 +3078,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3082,18 +3091,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3102,31 +3111,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>186</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3142,24 +3151,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3168,20 +3177,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3192,7 +3201,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3208,13 +3217,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3241,13 +3250,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3274,13 +3283,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3295,38 +3304,71 @@
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3394.9299999999998</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>203</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>12</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>96</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
         <v>204</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
         <v>205</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3644.4299999999998</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>206</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>207</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>208</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3645,10 +3687,15 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -407,6 +407,12 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
     <t>PROSTRIDE 5MG 30 CAPS.</t>
   </si>
   <si>
@@ -629,7 +635,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 7:07 PM</t>
+    <t>Monday, 9 June, 2025 7:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2491,7 +2497,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2505,10 +2511,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2517,14 +2523,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2534,14 +2540,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2550,14 +2556,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2567,14 +2573,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2583,14 +2589,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2600,14 +2606,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2616,14 +2622,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2633,11 +2639,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2656,7 +2662,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2670,10 +2676,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2682,14 +2688,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2699,14 +2705,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2715,7 +2721,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2732,11 +2738,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2748,14 +2754,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2765,14 +2771,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2781,14 +2787,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2798,14 +2804,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2821,7 +2827,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2831,11 +2837,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2847,14 +2853,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2864,14 +2870,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2880,14 +2886,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2897,14 +2903,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2913,14 +2919,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2930,14 +2936,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2946,14 +2952,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2963,14 +2969,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2979,14 +2985,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2996,11 +3002,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3012,31 +3018,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3045,14 +3051,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3062,14 +3068,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3078,7 +3084,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3095,14 +3101,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>159</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3128,14 +3134,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3151,7 +3157,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3161,14 +3167,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3177,14 +3183,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3194,14 +3200,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3210,14 +3216,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3227,14 +3233,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3243,14 +3249,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3260,11 +3266,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3276,14 +3282,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3293,11 +3299,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3309,14 +3315,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3326,49 +3332,82 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>205</v>
       </c>
-      <c t="s" r="Q69" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3644.4299999999998</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>12</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>96</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
         <v>206</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>207</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3674.4299999999998</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
         <v>208</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>209</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>210</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3692,10 +3731,15 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -329,6 +329,15 @@
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -635,7 +644,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 7:10 PM</t>
+    <t>Monday, 9 June, 2025 7:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2134,7 +2143,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2148,7 +2157,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2160,14 +2169,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2177,14 +2186,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2200,7 +2209,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2210,14 +2219,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2226,14 +2235,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2243,11 +2252,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2266,7 +2275,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2283,7 +2292,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2305,18 +2314,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2325,7 +2334,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2338,15 +2347,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2365,7 +2374,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2375,7 +2384,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2398,7 +2407,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2412,7 +2421,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2424,14 +2433,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2441,14 +2450,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2464,7 +2473,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2481,7 +2490,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2497,7 +2506,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2511,10 +2520,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2523,14 +2532,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2540,14 +2549,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2563,7 +2572,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2580,7 +2589,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2596,7 +2605,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2613,7 +2622,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2629,7 +2638,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2646,7 +2655,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2662,7 +2671,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2676,7 +2685,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2688,14 +2697,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2705,14 +2714,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2728,7 +2737,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2745,7 +2754,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2794,7 +2803,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2811,7 +2820,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2827,7 +2836,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2837,14 +2846,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2853,14 +2862,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2870,11 +2879,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2893,7 +2902,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2910,7 +2919,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2926,7 +2935,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2936,14 +2945,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2952,14 +2961,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2969,14 +2978,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2985,14 +2994,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3002,14 +3011,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3018,14 +3027,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3035,11 +3044,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3058,24 +3067,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3084,14 +3093,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3108,7 +3117,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3138,10 +3147,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>161</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3150,7 +3159,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3167,14 +3176,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3183,14 +3192,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3200,14 +3209,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>191</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3223,7 +3232,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3233,14 +3242,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3249,14 +3258,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3273,7 +3282,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3289,7 +3298,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3322,7 +3331,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3355,7 +3364,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3376,38 +3385,71 @@
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3674.4299999999998</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>208</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>12</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>96</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
         <v>209</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
         <v>210</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3726.4299999999998</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>211</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>212</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>213</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3736,10 +3778,15 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -338,6 +338,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>KEMIFORGE 5/320MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -554,6 +563,12 @@
     <t>40.5000</t>
   </si>
   <si>
+    <t>ايفا كريم 170 جم</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>بودره نلج اكياس</t>
   </si>
   <si>
@@ -644,7 +659,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 7:18 PM</t>
+    <t>Monday, 9 June, 2025 7:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2176,7 +2191,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2190,7 +2205,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2202,14 +2217,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2219,14 +2234,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2242,7 +2257,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2252,14 +2267,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2268,14 +2283,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2285,11 +2300,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2308,7 +2323,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2325,7 +2340,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2347,18 +2362,18 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2367,7 +2382,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2380,15 +2395,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2407,7 +2422,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2417,7 +2432,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2440,7 +2455,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2454,7 +2469,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2466,14 +2481,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2483,14 +2498,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2506,7 +2521,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2523,7 +2538,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2539,7 +2554,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2553,10 +2568,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2565,14 +2580,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2582,14 +2597,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2605,7 +2620,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2622,7 +2637,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2638,7 +2653,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2655,7 +2670,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2671,7 +2686,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2688,7 +2703,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2704,7 +2719,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2718,7 +2733,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2730,14 +2745,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2747,14 +2762,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2770,7 +2785,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2787,7 +2802,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2836,7 +2851,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2853,7 +2868,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2869,7 +2884,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2879,14 +2894,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2895,14 +2910,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2912,11 +2927,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2935,7 +2950,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2952,7 +2967,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2968,7 +2983,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2978,14 +2993,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2994,14 +3009,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3011,14 +3026,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3027,14 +3042,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3044,14 +3059,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3060,14 +3075,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3077,11 +3092,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3100,24 +3115,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3126,7 +3141,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3143,14 +3158,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3159,14 +3174,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3176,14 +3191,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>164</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3209,14 +3224,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>191</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3225,14 +3240,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3242,14 +3257,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3265,7 +3280,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3275,14 +3290,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>48</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3291,7 +3306,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3308,11 +3323,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3324,14 +3339,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3341,14 +3356,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3357,7 +3372,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3374,11 +3389,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3390,14 +3405,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3407,49 +3422,115 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>210</v>
       </c>
-      <c t="s" r="Q71" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3726.4299999999998</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>16</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>96</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
         <v>211</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
         <v>212</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>213</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>12</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>96</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>214</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3930.4299999999998</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>216</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>217</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>218</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3783,10 +3864,20 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -659,7 +659,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 7:29 PM</t>
+    <t>Monday, 9 June, 2025 7:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>BISOLOCK-D 10/25MG 20 F.C.TAB</t>
   </si>
   <si>
@@ -119,9 +131,6 @@
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -146,450 +155,450 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>CYCLOFLEX 5 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>187.50</t>
+  </si>
+  <si>
+    <t>187.5000</t>
+  </si>
+  <si>
+    <t>EFEMYO OPHTH. SUSP. 10 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>-17.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>GAPTIN 300 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>GLIMET 2.5/400 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>GUAVA SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>KEMIFORGE 5/320MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
+  </si>
+  <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>PROSTRIDE 5MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>183.00</t>
+  </si>
+  <si>
+    <t>60.3900</t>
+  </si>
+  <si>
+    <t>RELAT HAIR SERUM 60 ML</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>225.0000</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>TOPRO 10 SACHETS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8682:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>ZANOGLIDE 4/30 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>40.5000</t>
+  </si>
+  <si>
+    <t>ايفا كريم 170 جم</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>17:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>CYCLOFLEX 5 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>187.50</t>
-  </si>
-  <si>
-    <t>187.5000</t>
-  </si>
-  <si>
-    <t>EFEMYO OPHTH. SUSP. 10 ML</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>-17.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>GAPTIN 300 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>55.4400</t>
-  </si>
-  <si>
-    <t>GLIMET 2.5/400 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>GUAVA SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>HEDERA HELIX SYRAP</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>KEMIFORGE 5/320MG 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>NEURONTIN 300MG 20 CAPS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
-  </si>
-  <si>
-    <t>NORGESIC 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>PROSTRIDE 5MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>183.00</t>
-  </si>
-  <si>
-    <t>60.3900</t>
-  </si>
-  <si>
-    <t>RELAT HAIR SERUM 60 ML</t>
-  </si>
-  <si>
-    <t>225.00</t>
-  </si>
-  <si>
-    <t>225.0000</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>TOPRO 10 SACHETS</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8682:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>ZANOGLIDE 4/30 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>40.5000</t>
-  </si>
-  <si>
-    <t>ايفا كريم 170 جم</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -659,7 +668,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 7:31 PM</t>
+    <t>Monday, 9 June, 2025 7:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1333,7 +1342,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1343,14 +1352,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1383,7 +1392,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1392,14 +1401,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1416,7 +1425,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1432,7 +1441,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1442,14 +1451,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1458,14 +1467,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1482,7 +1491,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1515,7 +1524,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1531,7 +1540,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1541,14 +1550,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1557,14 +1566,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1574,14 +1583,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1590,14 +1599,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1607,14 +1616,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1623,14 +1632,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1640,14 +1649,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1656,14 +1665,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1673,14 +1682,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1689,14 +1698,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1706,14 +1715,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1722,14 +1731,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1739,11 +1748,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1755,14 +1764,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1772,14 +1781,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1788,14 +1797,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1805,14 +1814,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1821,14 +1830,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1838,14 +1847,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1854,14 +1863,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1871,14 +1880,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1887,14 +1896,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1904,14 +1913,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1920,14 +1929,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1937,14 +1946,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1953,14 +1962,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1970,11 +1979,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1986,14 +1995,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2003,11 +2012,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2019,28 +2028,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2052,28 +2061,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2085,14 +2094,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2102,11 +2111,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2118,7 +2127,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2135,11 +2144,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2151,7 +2160,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2168,11 +2177,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2184,14 +2193,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2201,11 +2210,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2217,14 +2226,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2234,11 +2243,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2250,14 +2259,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2267,14 +2276,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2283,14 +2292,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2300,14 +2309,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2316,14 +2325,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2333,11 +2342,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2349,14 +2358,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2366,14 +2375,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2382,7 +2391,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2395,18 +2404,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2428,15 +2437,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2448,14 +2457,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2465,11 +2474,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2481,14 +2490,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2498,11 +2507,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2521,7 +2530,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2531,14 +2540,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2547,14 +2556,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2564,14 +2573,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2580,14 +2589,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2597,14 +2606,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2613,14 +2622,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2630,14 +2639,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2646,14 +2655,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2663,14 +2672,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2679,14 +2688,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2696,14 +2705,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2712,14 +2721,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2729,14 +2738,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2745,14 +2754,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2762,11 +2771,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2778,14 +2787,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2795,14 +2804,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2811,14 +2820,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2828,14 +2837,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2844,7 +2853,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2861,11 +2870,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2877,14 +2886,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2894,14 +2903,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2910,14 +2919,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2927,14 +2936,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2943,14 +2952,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2960,11 +2969,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2976,14 +2985,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2993,14 +3002,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3009,14 +3018,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3026,14 +3035,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3049,7 +3058,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3059,14 +3068,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3075,14 +3084,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3092,14 +3101,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3108,14 +3117,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3125,14 +3134,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3141,31 +3150,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3181,7 +3190,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3191,14 +3200,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>48</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3207,14 +3216,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3224,14 +3233,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>45</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3240,7 +3249,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3257,14 +3266,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>167</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3273,7 +3282,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3290,14 +3299,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>196</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3306,14 +3315,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3323,14 +3332,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q68" s="12">
         <v>199</v>
-      </c>
-      <c t="s" r="Q68" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3346,7 +3355,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3356,14 +3365,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3372,14 +3381,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3396,7 +3405,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3412,7 +3421,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3445,7 +3454,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3478,7 +3487,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3499,38 +3508,71 @@
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3930.4299999999998</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>216</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>12</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>96</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
         <v>217</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
         <v>218</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3997.4299999999998</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>219</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>220</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>221</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3874,10 +3916,15 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -668,7 +668,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 7:48 PM</t>
+    <t>Monday, 9 June, 2025 8:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -668,7 +677,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 8:34 PM</t>
+    <t>Monday, 9 June, 2025 8:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1540,7 +1549,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1573,7 +1582,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1583,14 +1592,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1599,14 +1608,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1616,14 +1625,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1632,14 +1641,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1656,7 +1665,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1672,7 +1681,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1682,14 +1691,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1698,14 +1707,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1715,14 +1724,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1738,7 +1747,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1748,14 +1757,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1771,7 +1780,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1804,7 +1813,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1814,14 +1823,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1830,14 +1839,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1847,14 +1856,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1863,14 +1872,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1880,14 +1889,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1896,14 +1905,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1913,14 +1922,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1929,14 +1938,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1969,7 +1978,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1986,7 +1995,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2002,7 +2011,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2035,7 +2044,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2068,21 +2077,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2094,20 +2103,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2134,7 +2143,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2177,11 +2186,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2193,7 +2202,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2210,11 +2219,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2233,7 +2242,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2266,7 +2275,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2280,7 +2289,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2292,14 +2301,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2309,14 +2318,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2332,7 +2341,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2342,14 +2351,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2358,14 +2367,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2375,11 +2384,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2398,7 +2407,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2415,7 +2424,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2437,18 +2446,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2457,7 +2466,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2470,15 +2479,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2497,7 +2506,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2507,7 +2516,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2530,7 +2539,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2540,11 +2549,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2556,14 +2565,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2573,14 +2582,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2596,7 +2605,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2613,7 +2622,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2629,7 +2638,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2643,10 +2652,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2655,14 +2664,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2672,14 +2681,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2695,7 +2704,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2712,7 +2721,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2728,7 +2737,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2745,7 +2754,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2761,7 +2770,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2778,7 +2787,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2794,7 +2803,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2808,7 +2817,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2820,14 +2829,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2837,14 +2846,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2860,7 +2869,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2877,7 +2886,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2926,7 +2935,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2943,7 +2952,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2959,7 +2968,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2969,14 +2978,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2985,14 +2994,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3002,11 +3011,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3025,7 +3034,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3042,7 +3051,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3058,7 +3067,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3068,14 +3077,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3084,14 +3093,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3101,14 +3110,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3117,14 +3126,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3134,14 +3143,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3150,14 +3159,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3167,11 +3176,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>24</v>
@@ -3190,24 +3199,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>118</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3216,31 +3225,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3249,20 +3258,20 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3273,7 +3282,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>195</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3282,7 +3291,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3295,18 +3304,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>168</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3315,7 +3324,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3328,18 +3337,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>199</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3348,31 +3357,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>202</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3388,24 +3397,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3414,20 +3423,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3438,7 +3447,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3454,13 +3463,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3487,13 +3496,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3520,13 +3529,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3541,38 +3550,71 @@
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3997.4299999999998</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>219</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>12</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>99</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
         <v>220</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
         <v>221</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>4040.4299999999998</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>222</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>223</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>224</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3921,10 +3963,15 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -146,6 +146,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CIDOPHAGE 500MG 10 TAB</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>CIDOPHAGE RETARD 850MG 60 S.R. TABS</t>
   </si>
   <si>
@@ -215,6 +227,18 @@
     <t>187.5000</t>
   </si>
   <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
     <t>EFEMYO OPHTH. SUSP. 10 ML</t>
   </si>
   <si>
@@ -257,9 +281,6 @@
     <t>GAPTIN 300 MG 30 CAPS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>126.00</t>
   </si>
   <si>
@@ -677,7 +698,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 8:38 PM</t>
+    <t>Monday, 9 June, 2025 8:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1632,7 +1653,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1641,14 +1662,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1658,14 +1679,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1681,7 +1702,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1691,14 +1712,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1707,14 +1728,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1731,7 +1752,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1740,14 +1761,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1757,14 +1778,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1773,14 +1794,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1790,14 +1811,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1806,14 +1827,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1823,11 +1844,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1839,14 +1860,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1856,14 +1877,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1872,14 +1893,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1889,11 +1910,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1905,14 +1926,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1922,14 +1943,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1962,7 +1983,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1978,7 +1999,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1988,14 +2009,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2004,14 +2025,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2021,14 +2042,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2037,7 +2058,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2054,14 +2075,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2070,14 +2091,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2087,11 +2108,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2103,28 +2124,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2136,14 +2157,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2153,11 +2174,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2169,28 +2190,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2202,14 +2223,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2219,11 +2240,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2235,7 +2256,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2252,11 +2273,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2268,14 +2289,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2285,11 +2306,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2301,14 +2322,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2318,11 +2339,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2334,14 +2355,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2351,14 +2372,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2367,14 +2388,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2384,11 +2405,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2400,14 +2421,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2417,14 +2438,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2433,14 +2454,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2450,14 +2471,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2466,28 +2487,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2499,7 +2520,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2516,14 +2537,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2532,28 +2553,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2565,14 +2586,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2582,11 +2603,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2598,14 +2619,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2615,14 +2636,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2631,14 +2652,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2648,14 +2669,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2664,14 +2685,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2681,14 +2702,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2697,14 +2718,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2714,11 +2735,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>24</v>
@@ -2730,7 +2751,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2747,11 +2768,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2763,14 +2784,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2780,11 +2801,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>24</v>
@@ -2796,14 +2817,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2813,11 +2834,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2829,14 +2850,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2846,14 +2867,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2862,14 +2883,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2879,14 +2900,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2895,14 +2916,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2912,11 +2933,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2928,14 +2949,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2945,14 +2966,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2961,14 +2982,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2978,14 +2999,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2994,14 +3015,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3011,11 +3032,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3027,14 +3048,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3044,14 +3065,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3060,14 +3081,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3077,14 +3098,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3093,14 +3114,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3110,11 +3131,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3126,14 +3147,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3143,14 +3164,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>184</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3166,7 +3187,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3176,14 +3197,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3192,14 +3213,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3209,14 +3230,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3225,31 +3246,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>121</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3258,31 +3279,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>121</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3291,7 +3312,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3304,18 +3325,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>198</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3324,20 +3345,20 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3345,10 +3366,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>171</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3357,7 +3378,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3370,18 +3391,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>70</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3390,31 +3411,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3423,31 +3444,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>209</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>121</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3469,7 +3490,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3496,24 +3517,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3522,7 +3543,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3535,15 +3556,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3555,66 +3576,132 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>4040.4299999999998</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>222</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>223</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>16</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>106</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
         <v>224</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>226</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>12</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>106</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>227</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>4065.4299999999998</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>229</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>230</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>231</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3968,10 +4055,20 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -698,7 +698,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 8:46 PM</t>
+    <t>Monday, 9 June, 2025 8:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -173,6 +173,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -377,6 +389,15 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -422,9 +443,6 @@
     <t>NORGESIC 20 TAB.</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
     <t>38.0000</t>
   </si>
   <si>
@@ -557,6 +575,12 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -614,9 +638,6 @@
     <t>5.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -629,6 +650,15 @@
     <t>17:0</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -674,9 +704,6 @@
     <t xml:space="preserve">كريم شعر ايفا 85مل </t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -698,7 +725,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 8:47 PM</t>
+    <t>Monday, 9 June, 2025 8:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1719,7 +1746,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1735,7 +1762,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1745,14 +1772,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1761,14 +1788,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1785,7 +1812,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1794,14 +1821,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1811,14 +1838,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1827,14 +1854,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1844,14 +1871,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1860,14 +1887,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1884,7 +1911,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1900,7 +1927,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1910,14 +1937,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1926,14 +1953,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1943,14 +1970,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1959,14 +1986,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1976,14 +2003,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2009,14 +2036,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2032,7 +2059,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2042,14 +2069,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2058,14 +2085,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2075,11 +2102,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -2091,14 +2118,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2108,14 +2135,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2124,14 +2151,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2141,11 +2168,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2157,14 +2184,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2174,11 +2201,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2190,28 +2217,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2223,28 +2250,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2256,14 +2283,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2273,11 +2300,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2289,7 +2316,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2306,11 +2333,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2322,7 +2349,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2339,11 +2366,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2355,14 +2382,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2372,11 +2399,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2388,14 +2415,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2405,11 +2432,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2421,7 +2448,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2438,11 +2465,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>24</v>
@@ -2454,14 +2481,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2471,11 +2498,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2487,14 +2514,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2504,14 +2531,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2520,14 +2547,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2537,14 +2564,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2553,28 +2580,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2586,7 +2613,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2603,14 +2630,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2619,28 +2646,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2652,14 +2679,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2669,11 +2696,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2685,14 +2712,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2702,14 +2729,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2718,14 +2745,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2735,14 +2762,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2758,7 +2785,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2772,10 +2799,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2784,14 +2811,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2801,11 +2828,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>24</v>
@@ -2817,7 +2844,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2834,11 +2861,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2857,7 +2884,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2890,7 +2917,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2923,7 +2950,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2937,10 +2964,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2949,14 +2976,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2966,14 +2993,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2982,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2999,11 +3026,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3022,7 +3049,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3039,7 +3066,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3055,7 +3082,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3072,7 +3099,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3088,7 +3115,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3098,11 +3125,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3114,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3131,14 +3158,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3147,14 +3174,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3164,14 +3191,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3187,7 +3214,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3197,11 +3224,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3213,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3230,14 +3257,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3246,14 +3273,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3263,14 +3290,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3286,7 +3313,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3296,14 +3323,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3312,31 +3339,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>128</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3345,31 +3372,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>128</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3378,31 +3405,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>205</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3411,7 +3438,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3424,18 +3451,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>178</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3444,31 +3471,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>209</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3477,31 +3504,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>212</v>
-      </c>
-      <c t="s" r="Q72" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3517,24 +3544,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3543,31 +3570,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3576,31 +3603,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3609,7 +3636,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3622,15 +3649,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3642,66 +3669,198 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>227</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>16</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>110</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
         <v>228</v>
       </c>
-      <c t="s" r="Q77" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>4065.4299999999998</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
         <v>229</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>230</v>
       </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>135</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>110</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>56</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
         <v>231</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>232</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>16</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>110</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>233</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>235</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>12</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>110</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>236</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>4140.4300000000003</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>238</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>239</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>240</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4065,10 +4224,30 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -725,7 +725,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 8:48 PM</t>
+    <t>Monday, 9 June, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -404,6 +404,12 @@
     <t>48.00</t>
   </si>
   <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>MOVEASY 5 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -725,7 +731,10 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 9:01 PM</t>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>Monday, 9 June, 2025 9:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2531,14 +2540,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2547,14 +2556,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2564,14 +2573,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2587,7 +2596,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2597,11 +2606,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2613,14 +2622,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2630,14 +2639,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2646,7 +2655,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2659,18 +2668,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2679,7 +2688,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2692,15 +2701,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2719,7 +2728,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,11 +2738,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2745,14 +2754,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2766,7 +2775,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2778,14 +2787,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2795,14 +2804,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,14 +2820,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,14 +2837,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2844,14 +2853,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2861,14 +2870,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2884,7 +2893,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2898,10 +2907,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2910,14 +2919,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2927,14 +2936,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2943,14 +2952,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2960,14 +2969,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2976,14 +2985,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2993,14 +3002,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3009,14 +3018,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,11 +3035,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3049,7 +3058,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3063,10 +3072,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3075,14 +3084,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,14 +3101,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3108,7 +3117,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3125,11 +3134,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3141,14 +3150,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,14 +3167,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3174,14 +3183,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,14 +3200,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3214,7 +3223,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,11 +3233,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3240,14 +3249,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,11 +3266,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3280,7 +3289,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,14 +3299,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,14 +3315,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3323,14 +3332,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3346,7 +3355,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,14 +3365,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>199</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,14 +3381,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,14 +3398,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3405,14 +3414,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3422,11 +3431,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>24</v>
@@ -3438,31 +3447,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>135</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3478,7 +3487,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3488,14 +3497,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3504,14 +3513,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3525,10 +3534,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>212</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,14 +3546,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3554,14 +3563,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3570,14 +3579,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3587,14 +3596,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>184</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3620,14 +3629,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>219</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3643,7 +3652,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3653,14 +3662,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,14 +3678,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3686,14 +3695,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3702,14 +3711,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3719,14 +3728,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3735,14 +3744,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3752,7 +3761,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>56</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3775,7 +3784,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3785,11 +3794,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>56</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3801,14 +3810,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3818,49 +3827,115 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>237</v>
       </c>
-      <c t="s" r="Q81" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>4140.4300000000003</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>12</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>110</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
         <v>238</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
         <v>239</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>240</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>201</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>110</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>216</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4256.4300000000003</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>241</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>242</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>243</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4244,10 +4319,20 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BISOLOCK-D 10/25MG 20 F.C.TAB</t>
   </si>
   <si>
@@ -83,9 +98,6 @@
     <t>21.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BRAVAMAX 200MG 10 TAB</t>
   </si>
   <si>
@@ -203,9 +215,6 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -242,9 +251,6 @@
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>28.00</t>
   </si>
   <si>
@@ -518,9 +524,6 @@
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
     <t>54.0000</t>
   </si>
   <si>
@@ -734,7 +737,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 9:06 PM</t>
+    <t>Monday, 9 June, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1441,7 +1444,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1451,14 +1454,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1467,7 +1470,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1484,14 +1487,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1500,14 +1503,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1524,7 +1527,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1540,7 +1543,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1550,14 +1553,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1566,14 +1569,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1590,7 +1593,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1606,7 +1609,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1616,14 +1619,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1632,14 +1635,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1649,14 +1652,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1665,14 +1668,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1689,7 +1692,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1722,7 +1725,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1731,14 +1734,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1748,14 +1751,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>57</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1788,7 +1791,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1804,7 +1807,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1814,14 +1817,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1830,14 +1833,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1851,10 +1854,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1863,14 +1866,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1880,14 +1883,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1903,7 +1906,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1913,14 +1916,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1936,7 +1939,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1946,14 +1949,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1962,14 +1965,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1979,14 +1982,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1995,14 +1998,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2012,14 +2015,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2045,14 +2048,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2061,14 +2064,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2078,14 +2081,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2094,14 +2097,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2111,14 +2114,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2127,14 +2130,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2144,14 +2147,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2160,14 +2163,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2177,14 +2180,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2193,14 +2196,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2210,11 +2213,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2226,14 +2229,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2243,11 +2246,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2259,28 +2262,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2292,28 +2295,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2325,14 +2328,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2342,11 +2345,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2358,7 +2361,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2375,11 +2378,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2391,7 +2394,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2408,11 +2411,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2424,14 +2427,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2441,11 +2444,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2457,14 +2460,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2474,14 +2477,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2490,14 +2493,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2507,14 +2510,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2530,7 +2533,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2540,11 +2543,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2573,14 +2576,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2589,14 +2592,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2606,14 +2609,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2629,7 +2632,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2639,11 +2642,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2655,14 +2658,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2672,14 +2675,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2688,7 +2691,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2701,18 +2704,18 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2721,7 +2724,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2734,15 +2737,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2761,7 +2764,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2771,11 +2774,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2787,14 +2790,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2804,11 +2807,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2820,14 +2823,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2837,14 +2840,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2853,14 +2856,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2870,14 +2873,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2886,14 +2889,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2903,14 +2906,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2926,7 +2929,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2940,10 +2943,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2952,14 +2955,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2969,14 +2972,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2985,14 +2988,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3002,14 +3005,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3018,14 +3021,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3035,14 +3038,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3051,14 +3054,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3068,11 +3071,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3084,14 +3087,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3101,14 +3104,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3117,14 +3120,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3134,14 +3137,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3150,7 +3153,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3167,11 +3170,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3183,14 +3186,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3200,14 +3203,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3216,14 +3219,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3233,14 +3236,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3249,14 +3252,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3266,11 +3269,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3282,14 +3285,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3299,11 +3302,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3315,14 +3318,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3332,14 +3335,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3348,14 +3351,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3365,14 +3368,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3381,14 +3384,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3398,14 +3401,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>201</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3414,14 +3417,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3431,14 +3434,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3454,7 +3457,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3464,14 +3467,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3480,31 +3483,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>137</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3513,31 +3516,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3546,31 +3549,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>214</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3579,31 +3582,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3612,31 +3615,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3645,7 +3648,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3658,18 +3661,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>221</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3678,31 +3681,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3711,31 +3714,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3744,31 +3747,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3777,28 +3780,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3810,28 +3813,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>60</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3843,28 +3846,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3876,66 +3879,99 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>241</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>202</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>112</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
         <v>217</v>
       </c>
-      <c t="s" r="Q83" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4256.4300000000003</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>241</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4283.4300000000003</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
         <v>242</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
         <v>243</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>244</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4329,10 +4365,15 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BISOLOCK-D 10/25MG 20 F.C.TAB</t>
   </si>
   <si>
@@ -110,9 +119,6 @@
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -239,6 +245,12 @@
     <t>85.00</t>
   </si>
   <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -374,6 +386,15 @@
     <t>256.0000</t>
   </si>
   <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
@@ -461,9 +482,6 @@
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -554,12 +572,6 @@
     <t>TOPRO 10 SACHETS</t>
   </si>
   <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -596,9 +608,6 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>33.6600</t>
-  </si>
-  <si>
     <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
   </si>
   <si>
@@ -677,7 +686,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>22:0</t>
+    <t>23:0</t>
   </si>
   <si>
     <t xml:space="preserve">شامبو بانتين 190 مللي </t>
@@ -737,7 +746,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 9:07 PM</t>
+    <t>Monday, 9 June, 2025 9:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1454,14 +1463,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1470,14 +1479,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1494,7 +1503,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1527,7 +1536,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1543,7 +1552,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1553,14 +1562,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1569,14 +1578,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1586,14 +1595,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1602,14 +1611,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1619,14 +1628,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1635,14 +1644,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1652,14 +1661,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1668,14 +1677,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1685,14 +1694,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1701,14 +1710,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1718,14 +1727,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1734,14 +1743,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1751,14 +1760,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1767,14 +1776,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1784,14 +1793,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1800,14 +1809,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1817,14 +1826,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1833,14 +1842,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1850,14 +1859,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1873,7 +1882,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1883,14 +1892,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1899,14 +1908,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1916,14 +1925,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1932,14 +1941,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1953,10 +1962,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1965,14 +1974,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1982,14 +1991,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1998,14 +2007,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2015,11 +2024,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2031,14 +2040,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2048,14 +2057,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2064,14 +2073,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2081,11 +2090,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2097,14 +2106,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2114,14 +2123,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2130,14 +2139,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2147,14 +2156,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2163,14 +2172,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2180,14 +2189,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2196,14 +2205,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2213,14 +2222,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2229,7 +2238,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2246,14 +2255,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2262,14 +2271,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2279,11 +2288,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2295,28 +2304,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2328,14 +2337,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2345,11 +2354,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2361,28 +2370,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2394,14 +2403,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2411,11 +2420,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2473,7 +2482,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2510,14 +2519,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2526,14 +2535,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2543,11 +2552,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2559,14 +2568,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2576,7 +2585,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2616,7 +2625,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2632,7 +2641,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2642,11 +2651,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2665,7 +2674,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2675,11 +2684,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2691,14 +2700,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2708,14 +2717,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>139</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2724,28 +2733,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2764,7 +2773,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2774,11 +2783,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2790,14 +2799,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2807,14 +2816,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2823,28 +2832,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2856,14 +2865,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2873,14 +2882,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2896,7 +2905,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2906,14 +2915,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2922,14 +2931,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2939,11 +2948,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2955,14 +2964,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2972,14 +2981,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2988,14 +2997,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3005,14 +3014,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3021,14 +3030,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3038,14 +3047,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3054,14 +3063,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3071,14 +3080,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3087,14 +3096,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3104,11 +3113,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3120,14 +3129,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3137,14 +3146,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3153,14 +3162,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3170,11 +3179,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3186,14 +3195,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3203,11 +3212,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3219,14 +3228,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3236,14 +3245,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3252,14 +3261,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3269,11 +3278,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3285,14 +3294,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3302,11 +3311,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3318,14 +3327,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3335,14 +3344,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3351,14 +3360,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3368,14 +3377,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3384,14 +3393,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3401,11 +3410,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3417,14 +3426,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3434,14 +3443,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3450,14 +3459,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3467,14 +3476,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3483,14 +3492,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3500,14 +3509,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3516,31 +3525,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>136</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>139</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3549,31 +3558,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>139</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3582,31 +3591,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>215</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3615,31 +3624,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3648,31 +3657,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>187</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3681,7 +3690,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3694,18 +3703,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3714,28 +3723,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3747,31 +3756,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>139</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3780,31 +3789,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3813,28 +3822,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>60</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3846,31 +3855,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3879,28 +3888,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3912,66 +3921,165 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4283.4300000000003</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>238</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>16</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>116</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>239</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>241</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>12</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>116</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
         <v>242</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
         <v>243</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>244</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>205</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>116</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>220</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4483.0900000000001</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>245</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>246</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>247</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4370,10 +4478,25 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -260,6 +260,18 @@
     <t>187.5000</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -347,12 +359,6 @@
     <t>GUAVA SYRUP 120 ML</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>HEDERA HELIX SYRAP</t>
   </si>
   <si>
@@ -425,6 +431,18 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -440,12 +458,18 @@
     <t>MOVEASY 5 MG 20 F.C.TABS.</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MY FERRO  SYRUP</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
@@ -584,9 +608,6 @@
     <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -686,7 +707,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>23:0</t>
+    <t>26:0</t>
   </si>
   <si>
     <t xml:space="preserve">شامبو بانتين 190 مللي </t>
@@ -746,7 +767,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 9:15 PM</t>
+    <t>Monday, 9 June, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2047,7 +2068,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2057,14 +2078,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2073,14 +2094,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2090,14 +2111,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2106,14 +2127,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2123,14 +2144,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2139,14 +2160,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2156,14 +2177,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2189,14 +2210,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2212,7 +2233,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2222,14 +2243,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2238,14 +2259,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2255,11 +2276,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>24</v>
@@ -2271,14 +2292,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2288,14 +2309,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2304,14 +2325,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2321,11 +2342,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2337,14 +2358,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2354,11 +2375,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2370,28 +2391,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2403,28 +2424,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2436,14 +2457,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2453,11 +2474,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2469,28 +2490,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2502,28 +2523,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2535,7 +2556,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2552,11 +2573,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2568,14 +2589,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2585,11 +2606,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2601,14 +2622,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2618,14 +2639,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2634,14 +2655,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2651,14 +2672,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2674,7 +2695,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2684,11 +2705,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2700,14 +2721,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2717,14 +2738,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2733,14 +2754,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2750,11 +2771,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2766,14 +2787,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2783,14 +2804,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2812,7 +2833,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2823,7 +2844,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2839,21 +2860,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2865,14 +2886,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2882,11 +2903,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2898,14 +2919,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2915,14 +2936,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2931,28 +2952,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2964,14 +2985,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2981,14 +3002,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2997,14 +3018,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3014,14 +3035,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3030,14 +3051,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3047,11 +3068,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3070,7 +3091,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3087,7 +3108,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3103,7 +3124,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3120,7 +3141,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3136,7 +3157,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3150,10 +3171,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3162,14 +3183,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3179,14 +3200,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3202,7 +3223,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3216,7 +3237,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3228,14 +3249,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3245,11 +3266,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>24</v>
@@ -3261,14 +3282,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3278,7 +3299,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3301,7 +3322,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3311,11 +3332,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3327,14 +3348,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3344,11 +3365,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>24</v>
@@ -3360,14 +3381,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3377,11 +3398,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3393,14 +3414,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3410,11 +3431,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3433,7 +3454,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3443,14 +3464,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3459,14 +3480,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3476,14 +3497,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3499,7 +3520,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3509,11 +3530,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3525,14 +3546,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3542,14 +3563,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3558,14 +3579,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3575,14 +3596,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>23</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3591,14 +3612,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3608,14 +3629,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3624,31 +3645,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>146</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3657,31 +3678,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>146</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3690,31 +3711,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>218</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3723,31 +3744,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3756,31 +3777,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>204</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3789,7 +3810,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3802,15 +3823,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>225</v>
@@ -3829,13 +3850,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -3862,24 +3883,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>146</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3888,31 +3909,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3921,28 +3942,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3954,31 +3975,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3987,28 +4008,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4020,66 +4041,165 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4483.0900000000001</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>245</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>16</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>118</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
         <v>246</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>247</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>248</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>12</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>118</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>249</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>251</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>212</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>118</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>227</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4647.0900000000001</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>252</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>253</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>254</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4493,10 +4613,25 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -320,6 +320,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>GAPTIN 300 MG 30 CAPS</t>
   </si>
   <si>
@@ -392,6 +404,12 @@
     <t>256.0000</t>
   </si>
   <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
     <t>HUSH SACHET</t>
   </si>
   <si>
@@ -404,6 +422,12 @@
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
+    <t>IMMULANT N SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
@@ -473,9 +497,6 @@
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>NEURONTIN 300MG 20 CAPS</t>
   </si>
   <si>
@@ -593,6 +614,9 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
+  </si>
+  <si>
     <t>TOPRO 10 SACHETS</t>
   </si>
   <si>
@@ -743,18 +767,9 @@
     <t xml:space="preserve">كريم شعر ايفا 85مل </t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -767,7 +782,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 9:18 PM</t>
+    <t>Monday, 9 June, 2025 9:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2266,7 +2281,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2276,14 +2291,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2292,14 +2307,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2309,11 +2324,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>24</v>
@@ -2325,14 +2340,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2342,14 +2357,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2358,14 +2373,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2375,11 +2390,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2391,14 +2406,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2408,11 +2423,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2424,28 +2439,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2457,28 +2472,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2490,14 +2505,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2507,11 +2522,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2523,28 +2538,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2556,7 +2571,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2573,14 +2588,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2589,28 +2604,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2622,14 +2637,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2639,11 +2654,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2662,7 +2677,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2672,14 +2687,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2688,14 +2703,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2705,11 +2720,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2721,14 +2736,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2738,11 +2753,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2754,7 +2769,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2771,14 +2786,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2794,7 +2809,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2804,14 +2819,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2820,28 +2835,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2853,14 +2868,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2870,11 +2885,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2886,14 +2901,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2903,14 +2918,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2932,7 +2947,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2943,7 +2958,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2959,21 +2974,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2992,7 +3007,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3002,11 +3017,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3018,14 +3033,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3035,14 +3050,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3051,28 +3066,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3084,14 +3099,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3101,14 +3116,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3117,14 +3132,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3134,14 +3149,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3157,7 +3172,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3167,11 +3182,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3183,14 +3198,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3200,14 +3215,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3216,14 +3231,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3233,14 +3248,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3249,14 +3264,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3266,14 +3281,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3282,14 +3297,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3299,14 +3314,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3315,14 +3330,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3332,11 +3347,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3355,7 +3370,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3388,7 +3403,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3398,11 +3413,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3414,14 +3429,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3431,11 +3446,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3454,7 +3469,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3487,7 +3502,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3497,11 +3512,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3513,14 +3528,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3530,11 +3545,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3553,7 +3568,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3563,11 +3578,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3579,14 +3594,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3596,14 +3611,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3619,7 +3634,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3629,11 +3644,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3645,14 +3660,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3662,14 +3677,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>212</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3678,14 +3693,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3695,14 +3710,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3711,14 +3726,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3728,14 +3743,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3744,31 +3759,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3777,31 +3792,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>154</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3810,31 +3825,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>225</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3843,31 +3858,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3876,7 +3891,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3889,18 +3904,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3909,31 +3924,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>232</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3942,31 +3957,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3975,31 +3990,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4008,31 +4023,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4041,31 +4056,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4074,7 +4089,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4087,15 +4102,15 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4107,31 +4122,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4140,66 +4155,198 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4647.0900000000001</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>251</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>104</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>122</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>62</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>252</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>16</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>122</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>105</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>253</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>12</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>122</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
         <v>254</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>256</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>220</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>122</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>235</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4850.0900000000001</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>257</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>258</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>259</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4628,10 +4775,30 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -215,6 +215,15 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>CYCLOFLEX 5 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -479,6 +488,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>MIRTIMASH 30 MG 30 SCORED F.C. TABS.</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>177.0000</t>
+  </si>
+  <si>
     <t>MOVEASY 5 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -605,6 +623,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>136.5000</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -674,6 +701,15 @@
     <t>8:0</t>
   </si>
   <si>
+    <t>WELLINTA 150 MG 30S.R.F.C.TABS.</t>
+  </si>
+  <si>
+    <t>291.00</t>
+  </si>
+  <si>
+    <t>291.0000</t>
+  </si>
+  <si>
     <t>ZANOGLIDE 4/30 MG 30 TAB</t>
   </si>
   <si>
@@ -686,6 +722,9 @@
     <t>40.5000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
     <t>ايفا كريم 170 جم</t>
   </si>
   <si>
@@ -764,6 +803,18 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كريم شعر ايفا 85مل </t>
   </si>
   <si>
@@ -782,7 +833,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 9:25 PM</t>
+    <t>Monday, 9 June, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1918,7 +1969,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1932,7 +1983,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1944,14 +1995,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1965,10 +2016,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1977,14 +2028,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1994,14 +2045,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2027,14 +2078,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>20</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2043,14 +2094,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2060,11 +2111,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2083,7 +2134,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2093,11 +2144,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2109,14 +2160,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2133,7 +2184,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2149,7 +2200,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2166,7 +2217,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2182,7 +2233,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2192,14 +2243,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2208,14 +2259,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2225,14 +2276,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2241,14 +2292,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2258,14 +2309,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2274,14 +2325,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2291,14 +2342,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2307,14 +2358,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2331,7 +2382,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2347,7 +2398,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2380,7 +2431,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2397,7 +2448,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2413,7 +2464,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2446,7 +2497,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2456,11 +2507,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2472,28 +2523,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2505,20 +2556,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2545,7 +2596,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2592,10 +2643,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2604,31 +2655,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2644,21 +2695,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2670,14 +2721,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2687,11 +2738,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2703,14 +2754,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2720,7 +2771,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2743,7 +2794,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2776,7 +2827,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2793,7 +2844,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2809,7 +2860,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2819,14 +2870,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2835,14 +2886,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2856,7 +2907,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2868,14 +2919,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2885,11 +2936,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2901,7 +2952,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2918,14 +2969,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2934,7 +2985,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2947,15 +2998,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2967,14 +3018,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2984,14 +3035,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3000,28 +3051,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3033,14 +3084,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3050,14 +3101,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3073,21 +3124,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3099,7 +3150,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3116,14 +3167,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3132,28 +3183,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3165,14 +3216,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3182,11 +3233,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3198,14 +3249,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3215,14 +3266,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3231,14 +3282,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3248,14 +3299,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>49</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3271,7 +3322,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3285,10 +3336,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3297,14 +3348,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3314,11 +3365,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>24</v>
@@ -3330,7 +3381,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3347,11 +3398,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3370,7 +3421,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3403,7 +3454,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3413,11 +3464,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3429,14 +3480,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3446,14 +3497,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3462,14 +3513,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3479,14 +3530,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3495,14 +3546,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3512,11 +3563,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3535,7 +3586,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3545,14 +3596,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3561,14 +3612,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3578,11 +3629,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3594,14 +3645,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3611,14 +3662,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3627,14 +3678,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3644,11 +3695,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3660,14 +3711,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3677,11 +3728,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3693,14 +3744,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3710,14 +3761,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>98</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3726,14 +3777,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3743,14 +3794,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3759,14 +3810,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3776,11 +3827,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3792,14 +3843,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3809,14 +3860,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>220</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3832,7 +3883,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3842,14 +3893,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>23</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>24</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3858,14 +3909,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3875,14 +3926,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3898,24 +3949,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>104</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3924,31 +3975,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>63</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3957,31 +4008,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>233</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3997,13 +4048,13 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4014,7 +4065,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4030,24 +4081,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4056,7 +4107,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4069,18 +4120,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>240</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4089,20 +4140,20 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4110,10 +4161,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4122,31 +4173,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>104</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4155,28 +4206,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4188,31 +4239,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>62</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4228,24 +4279,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>253</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4254,28 +4305,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4287,66 +4338,264 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4850.0900000000001</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>257</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>258</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>259</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>261</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>16</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>125</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>262</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>264</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>265</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>125</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>266</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>268</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>107</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>125</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>62</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>269</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>16</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>125</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>108</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>270</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>12</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>125</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>271</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>273</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>229</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>125</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>248</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5810.5900000000001</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>274</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>275</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>276</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4795,10 +5044,40 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -833,7 +833,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 9:30 PM</t>
+    <t>Monday, 9 June, 2025 9:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4260,10 +4260,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4565,7 +4565,7 @@
     </row>
     <row r="101" ht="25.5" customHeight="1">
       <c r="P101" s="13">
-        <v>5810.5900000000001</v>
+        <v>5814.5900000000001</v>
       </c>
       <c r="Q101" s="13"/>
     </row>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -833,7 +833,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 9:33 PM</t>
+    <t>Monday, 9 June, 2025 9:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -833,7 +833,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 9:34 PM</t>
+    <t>Monday, 9 June, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -203,6 +203,15 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -269,6 +278,15 @@
     <t>187.5000</t>
   </si>
   <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -299,6 +317,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -473,9 +500,6 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -515,6 +539,15 @@
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>NEURONTIN 300MG 20 CAPS</t>
   </si>
   <si>
@@ -605,174 +638,174 @@
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
+    <t>71.8200</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>136.5000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>TOPRO 10 SACHETS</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8682:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>WELLINTA 150 MG 30S.R.F.C.TABS.</t>
+  </si>
+  <si>
+    <t>291.00</t>
+  </si>
+  <si>
+    <t>291.0000</t>
+  </si>
+  <si>
+    <t>ZANOGLIDE 4/30 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>40.5000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>ايفا كريم 170 جم</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>54.0000</t>
   </si>
   <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>136.5000</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
-  </si>
-  <si>
-    <t>TOPRO 10 SACHETS</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8682:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>WELLINTA 150 MG 30S.R.F.C.TABS.</t>
-  </si>
-  <si>
-    <t>291.00</t>
-  </si>
-  <si>
-    <t>291.0000</t>
-  </si>
-  <si>
-    <t>ZANOGLIDE 4/30 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>40.5000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>ايفا كريم 170 جم</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">شامبو بانتين 190 مللي </t>
   </si>
   <si>
@@ -833,7 +866,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 9:36 PM</t>
+    <t>Monday, 9 June, 2025 9:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1936,7 +1969,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1946,14 +1979,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1962,14 +1995,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1986,7 +2019,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2002,7 +2035,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2016,7 +2049,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2028,14 +2061,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2049,10 +2082,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2061,14 +2094,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2078,14 +2111,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2111,14 +2144,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>20</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2127,14 +2160,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2144,11 +2177,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2167,7 +2200,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2177,11 +2210,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2193,7 +2226,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2210,11 +2243,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -2226,14 +2259,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2266,7 +2299,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2276,14 +2309,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>77</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2292,14 +2325,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2342,14 +2375,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>105</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2358,14 +2391,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2375,14 +2408,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2391,14 +2424,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2408,14 +2441,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2424,14 +2457,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2441,14 +2474,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2457,14 +2490,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2497,7 +2530,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2514,7 +2547,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2530,7 +2563,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2540,14 +2573,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2556,20 +2589,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2596,7 +2629,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2629,7 +2662,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2639,11 +2672,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2655,20 +2688,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2676,10 +2709,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2688,28 +2721,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2721,7 +2754,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2738,11 +2771,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2754,14 +2787,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2771,14 +2804,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2787,28 +2820,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2820,14 +2853,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2837,11 +2870,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2853,14 +2886,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2870,14 +2903,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2893,7 +2926,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2903,11 +2936,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2919,14 +2952,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2936,11 +2969,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2969,14 +3002,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2985,14 +3018,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3002,11 +3035,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3018,14 +3051,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3035,14 +3068,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3051,24 +3084,24 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3091,7 +3124,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3101,11 +3134,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3117,14 +3150,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3134,14 +3167,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3150,7 +3183,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3163,18 +3196,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3183,20 +3216,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3216,14 +3249,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3233,14 +3266,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3249,14 +3282,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3266,11 +3299,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3282,14 +3315,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3299,14 +3332,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3315,31 +3348,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3348,14 +3381,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3365,14 +3398,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3381,14 +3414,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3398,11 +3431,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3414,14 +3447,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3431,14 +3464,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3454,7 +3487,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3471,7 +3504,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3487,7 +3520,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3520,7 +3553,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3530,11 +3563,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3553,7 +3586,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3567,10 +3600,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3579,14 +3612,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3596,14 +3629,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3612,14 +3645,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3629,14 +3662,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3645,14 +3678,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3662,14 +3695,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3685,7 +3718,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3695,11 +3728,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3711,14 +3744,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3728,14 +3761,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3744,14 +3777,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3761,14 +3794,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3777,14 +3810,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3794,11 +3827,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3810,14 +3843,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3827,11 +3860,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3843,14 +3876,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3860,11 +3893,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3876,14 +3909,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3893,14 +3926,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>77</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3909,14 +3942,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3926,11 +3959,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3942,14 +3975,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>226</v>
+        <v>116</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3959,14 +3992,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>229</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3982,7 +4015,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3992,11 +4025,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4008,14 +4041,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4025,14 +4058,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>23</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4048,7 +4081,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4058,14 +4091,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4074,14 +4107,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4091,14 +4124,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>57</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4107,7 +4140,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4120,18 +4153,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4140,31 +4173,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>242</v>
+        <v>14</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>107</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4173,31 +4206,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>246</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4206,28 +4239,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>229</v>
+        <v>85</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>57</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4239,7 +4272,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4252,18 +4285,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4272,31 +4305,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>253</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4312,13 +4345,13 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4329,7 +4362,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>257</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4338,20 +4371,20 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4362,7 +4395,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4378,13 +4411,13 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4392,10 +4425,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4404,31 +4437,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4437,28 +4470,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>62</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4470,31 +4503,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>109</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4503,28 +4536,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4536,66 +4569,198 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5814.5900000000001</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>274</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>275</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>276</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>279</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>116</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>134</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>62</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>280</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>16</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>134</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>117</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>281</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>12</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>134</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>282</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>284</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>240</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>134</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>259</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5993.8199999999997</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>285</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>286</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>287</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5074,10 +5239,30 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -119,9 +131,6 @@
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -347,9 +356,6 @@
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>-17.0000</t>
   </si>
   <si>
@@ -803,7 +809,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>54.0000</t>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>28:0</t>
   </si>
   <si>
     <t xml:space="preserve">شامبو بانتين 190 مللي </t>
@@ -866,7 +875,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 9:39 PM</t>
+    <t>Monday, 9 June, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1639,7 +1648,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1649,11 +1658,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>24</v>
@@ -1665,7 +1674,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1682,14 +1691,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1698,14 +1707,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1715,14 +1724,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1731,14 +1740,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1748,14 +1757,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1771,7 +1780,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1781,14 +1790,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1797,14 +1806,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1837,7 +1846,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1870,7 +1879,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1880,14 +1889,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1896,14 +1905,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1913,14 +1922,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1929,14 +1938,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1946,14 +1955,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1962,14 +1971,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2002,7 +2011,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2012,14 +2021,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2028,14 +2037,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2052,7 +2061,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2068,7 +2077,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2082,7 +2091,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2094,14 +2103,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2115,10 +2124,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2127,14 +2136,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2144,14 +2153,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2177,14 +2186,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>20</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2193,14 +2202,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2210,11 +2219,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2233,7 +2242,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2250,7 +2259,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2266,7 +2275,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2276,14 +2285,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2292,14 +2301,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2316,7 +2325,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2332,7 +2341,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2349,7 +2358,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2365,7 +2374,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2375,14 +2384,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2408,14 +2417,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2424,14 +2433,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2441,14 +2450,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2457,14 +2466,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2474,14 +2483,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2490,14 +2499,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2507,14 +2516,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2523,14 +2532,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2540,14 +2549,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2556,14 +2565,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2573,11 +2582,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>24</v>
@@ -2589,14 +2598,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2606,14 +2615,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2622,14 +2631,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2639,11 +2648,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2655,14 +2664,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2672,11 +2681,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2688,28 +2697,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2721,28 +2730,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2754,14 +2763,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2771,11 +2780,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2787,7 +2796,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2804,14 +2813,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2827,13 +2836,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2841,10 +2850,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2853,28 +2862,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2886,14 +2895,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2903,11 +2912,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2926,7 +2935,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2936,11 +2945,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2952,14 +2961,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2969,11 +2978,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2985,14 +2994,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3002,14 +3011,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3018,14 +3027,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3035,14 +3044,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3051,14 +3060,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3072,7 +3081,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3091,7 +3100,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3101,11 +3110,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3124,7 +3133,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3134,11 +3143,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3150,14 +3159,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3167,14 +3176,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3190,24 +3199,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3216,28 +3225,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3249,14 +3258,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3266,14 +3275,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3282,14 +3291,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3299,14 +3308,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3315,14 +3324,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3332,14 +3341,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3348,7 +3357,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3361,18 +3370,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3381,7 +3390,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3394,15 +3403,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3421,7 +3430,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3431,7 +3440,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3454,7 +3463,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3464,11 +3473,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3480,14 +3489,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3497,14 +3506,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3513,14 +3522,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3530,14 +3539,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3546,14 +3555,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3563,14 +3572,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3586,7 +3595,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3600,10 +3609,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3612,14 +3621,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3629,14 +3638,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3645,14 +3654,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3662,14 +3671,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3678,14 +3687,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3695,14 +3704,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3718,7 +3727,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3728,14 +3737,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3751,7 +3760,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3765,10 +3774,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3777,14 +3786,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3794,14 +3803,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3810,14 +3819,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3827,11 +3836,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3843,7 +3852,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3860,11 +3869,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3876,7 +3885,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3893,11 +3902,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3909,14 +3918,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3926,14 +3935,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3942,14 +3951,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3959,14 +3968,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3975,14 +3984,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3992,11 +4001,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4008,14 +4017,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4025,11 +4034,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>110</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4048,7 +4057,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>93</v>
+        <v>233</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4058,14 +4067,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>112</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4081,7 +4090,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4091,14 +4100,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4114,7 +4123,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4124,14 +4133,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>240</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4140,14 +4149,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4157,14 +4166,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4173,14 +4182,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4190,14 +4199,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4206,14 +4215,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4223,11 +4232,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>24</v>
@@ -4239,14 +4248,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4256,14 +4265,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>57</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4272,31 +4281,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4312,24 +4321,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4338,20 +4347,20 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4359,10 +4368,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>257</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4371,31 +4380,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4404,31 +4413,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4450,18 +4459,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4477,24 +4486,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q97" s="12">
         <v>267</v>
-      </c>
-      <c t="s" r="Q97" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4510,24 +4519,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>269</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4536,20 +4545,20 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>272</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4560,7 +4569,7 @@
         <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4576,24 +4585,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4602,31 +4611,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>116</v>
+        <v>279</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4635,28 +4644,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4668,28 +4677,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>119</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4708,59 +4717,92 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5993.8199999999997</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>285</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>286</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>287</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>242</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>136</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>261</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>6008.3000000000002</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>288</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>289</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>290</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5259,10 +5301,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -875,7 +875,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 9:43 PM</t>
+    <t>Monday, 9 June, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -875,7 +875,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 9:46 PM</t>
+    <t>Monday, 9 June, 2025 10:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>BRAVAMAX 200MG 10 TAB</t>
   </si>
   <si>
@@ -341,6 +350,18 @@
     <t>5:2</t>
   </si>
   <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -365,9 +386,6 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -518,6 +536,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
     <t>MIRTIMASH 30 MG 30 SCORED F.C. TABS.</t>
   </si>
   <si>
@@ -599,6 +626,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
   </si>
   <si>
@@ -716,9 +752,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
   </si>
   <si>
@@ -785,10 +818,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>17:0</t>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>19:0</t>
   </si>
   <si>
     <t>حلاوة حرير</t>
@@ -800,6 +833,9 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>زيت برافين</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -857,6 +893,15 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كريم شعر ايفا 85مل </t>
   </si>
   <si>
@@ -875,7 +920,10 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 10:01 PM</t>
+    <t>معجون سيجنال اطفال 50 ملل</t>
+  </si>
+  <si>
+    <t>Monday, 9 June, 2025 10:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1714,7 +1762,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1747,7 +1795,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1757,14 +1805,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1773,14 +1821,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1790,14 +1838,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1813,7 +1861,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1823,14 +1871,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1839,14 +1887,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1879,7 +1927,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1912,7 +1960,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1922,14 +1970,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1938,14 +1986,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1955,14 +2003,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1971,14 +2019,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1988,14 +2036,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2004,14 +2052,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2044,7 +2092,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2054,14 +2102,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2070,14 +2118,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2094,7 +2142,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2110,7 +2158,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2124,7 +2172,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2136,14 +2184,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2157,10 +2205,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2169,14 +2217,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2186,14 +2234,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2219,14 +2267,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>20</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2235,14 +2283,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2252,11 +2300,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2275,7 +2323,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2292,7 +2340,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2308,7 +2356,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2318,14 +2366,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2334,14 +2382,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2358,7 +2406,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2374,7 +2422,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2391,7 +2439,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2407,7 +2455,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2417,14 +2465,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2450,14 +2498,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2466,14 +2514,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2483,14 +2531,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2499,14 +2547,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2516,14 +2564,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2572,7 +2620,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2582,14 +2630,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>123</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2605,7 +2653,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2622,7 +2670,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2638,7 +2686,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2655,7 +2703,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2688,7 +2736,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2704,7 +2752,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2714,11 +2762,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2730,20 +2778,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2770,7 +2818,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2780,11 +2828,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2796,20 +2844,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2836,7 +2884,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2850,10 +2898,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2862,28 +2910,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2895,7 +2943,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2912,14 +2960,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2928,7 +2976,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2941,15 +2989,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2961,7 +3009,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2978,11 +3026,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2994,7 +3042,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3011,7 +3059,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -3051,7 +3099,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3067,7 +3115,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3077,11 +3125,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3100,7 +3148,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3114,10 +3162,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3126,14 +3174,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3143,11 +3191,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3159,14 +3207,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3176,11 +3224,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3192,7 +3240,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3209,14 +3257,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3225,7 +3273,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3238,15 +3286,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3258,14 +3306,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3275,11 +3323,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3291,14 +3339,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3308,11 +3356,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>24</v>
@@ -3324,28 +3372,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3357,14 +3405,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3374,14 +3422,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3397,24 +3445,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3423,14 +3471,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3440,11 +3488,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3456,14 +3504,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3473,14 +3521,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3489,28 +3537,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3522,14 +3570,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3539,14 +3587,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3555,14 +3603,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3572,14 +3620,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3588,14 +3636,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3605,11 +3653,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3621,14 +3669,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3638,14 +3686,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3654,14 +3702,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3671,14 +3719,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3687,14 +3735,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3704,11 +3752,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>24</v>
@@ -3720,14 +3768,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3737,14 +3785,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>31</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3753,14 +3801,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3770,14 +3818,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3786,14 +3834,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3803,14 +3851,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3819,14 +3867,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3836,14 +3884,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3852,14 +3900,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3869,14 +3917,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3885,14 +3933,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3902,11 +3950,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3918,14 +3966,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3935,14 +3983,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3951,14 +3999,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3968,14 +4016,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3984,14 +4032,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4001,11 +4049,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>61</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4017,14 +4065,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4034,11 +4082,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4050,14 +4098,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4067,11 +4115,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4083,14 +4131,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4100,14 +4148,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>23</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>83</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4116,14 +4164,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4133,11 +4181,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4149,14 +4197,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>239</v>
+        <v>114</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4166,14 +4214,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>242</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4182,14 +4230,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4199,11 +4247,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>119</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4222,7 +4270,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4232,14 +4280,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>23</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4255,7 +4303,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4265,14 +4313,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4281,14 +4329,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>88</v>
+        <v>250</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4298,14 +4346,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>60</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4314,7 +4362,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4327,18 +4375,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>164</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4347,31 +4395,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>254</v>
+        <v>86</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>118</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4380,31 +4428,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>259</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4413,28 +4461,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>242</v>
+        <v>91</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>63</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4446,7 +4494,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4459,18 +4507,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>88</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4479,31 +4527,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>267</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4512,31 +4560,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q98" s="12">
         <v>270</v>
-      </c>
-      <c t="s" r="Q98" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4552,24 +4600,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4578,28 +4626,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4611,31 +4659,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4644,31 +4692,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>65</v>
+        <v>251</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>152</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4677,7 +4725,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4690,15 +4738,15 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>119</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>120</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4710,20 +4758,20 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4734,7 +4782,7 @@
         <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4750,59 +4798,290 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>6008.3000000000002</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>288</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>289</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
         <v>290</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>291</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>142</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>292</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>294</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>118</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>142</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>295</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>297</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>114</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>142</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>68</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>298</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>16</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>142</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>125</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>299</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>12</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>142</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>300</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>302</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>253</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>142</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>272</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>303</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>16</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>142</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>143</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6399.1300000000001</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>304</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>305</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>306</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5306,10 +5585,45 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -554,6 +554,12 @@
     <t>177.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>MOVEASY 5 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -923,7 +929,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 10:03 PM</t>
+    <t>Monday, 9 June, 2025 10:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3346,7 +3352,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3356,7 +3362,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3379,24 +3385,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3405,28 +3411,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3438,14 +3444,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3455,14 +3461,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3471,14 +3477,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3488,14 +3494,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3504,14 +3510,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3521,14 +3527,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3537,7 +3543,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3550,18 +3556,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3570,7 +3576,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3583,15 +3589,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3610,7 +3616,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3620,7 +3626,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3657,7 +3663,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3669,14 +3675,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3686,14 +3692,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3702,14 +3708,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3719,14 +3725,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3735,14 +3741,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3752,11 +3758,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>24</v>
@@ -3768,14 +3774,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3785,14 +3791,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3808,7 +3814,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3822,10 +3828,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3834,14 +3840,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3851,14 +3857,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3867,14 +3873,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3884,14 +3890,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3900,14 +3906,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3917,14 +3923,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3940,7 +3946,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3950,14 +3956,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3973,7 +3979,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3987,10 +3993,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3999,14 +4005,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4016,14 +4022,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4032,14 +4038,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4049,11 +4055,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4065,7 +4071,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4082,11 +4088,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4098,7 +4104,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4115,11 +4121,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4131,14 +4137,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4148,14 +4154,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>154</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4164,14 +4170,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4181,14 +4187,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>64</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4197,14 +4203,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4214,11 +4220,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4230,14 +4236,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>114</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4247,11 +4253,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>119</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>120</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4270,7 +4276,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4280,14 +4286,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4296,14 +4302,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4313,14 +4319,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4336,7 +4342,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4346,14 +4352,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>253</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4362,14 +4368,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4379,14 +4385,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4395,14 +4401,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4412,14 +4418,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4428,14 +4434,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4445,11 +4451,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>24</v>
@@ -4461,14 +4467,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4478,14 +4484,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>63</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>174</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4494,31 +4500,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4534,7 +4540,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4544,11 +4550,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>170</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>69</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>114</v>
@@ -4560,14 +4566,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4581,10 +4587,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>270</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4593,14 +4599,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4610,14 +4616,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4626,14 +4632,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4643,11 +4649,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4659,14 +4665,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4676,14 +4682,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4709,14 +4715,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>279</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4725,14 +4731,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4742,14 +4748,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4758,14 +4764,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>284</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4775,14 +4781,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4791,14 +4797,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4808,14 +4814,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4824,14 +4830,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4841,14 +4847,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4857,14 +4863,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4874,14 +4880,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4890,14 +4896,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4907,11 +4913,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>68</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>158</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4923,14 +4929,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4940,11 +4946,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4956,14 +4962,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4973,11 +4979,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -4989,14 +4995,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5006,11 +5012,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5022,14 +5028,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5039,49 +5045,82 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>143</v>
+        <v>274</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>305</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>16</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>142</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>143</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>144</v>
       </c>
-      <c t="s" r="Q112" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6399.1300000000001</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>304</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>305</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>6412</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
         <v>306</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>307</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>308</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5620,10 +5659,15 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -83,9 +98,6 @@
     <t>33.6600</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -152,6 +164,27 @@
     <t>142.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">CAPOTEN 25MG  20TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -269,9 +302,6 @@
     <t>23.7600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -413,12 +443,6 @@
     <t>GLIMET 2.5/400 MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -437,9 +461,6 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -590,9 +611,6 @@
     <t>NEURONTIN 300MG 20 CAPS</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>108.0000</t>
   </si>
   <si>
@@ -683,6 +701,9 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
@@ -773,9 +794,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
     <t>8:0</t>
   </si>
   <si>
@@ -929,7 +947,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 10:06 PM</t>
+    <t>Monday, 9 June, 2025 10:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1620,7 +1638,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1629,14 +1647,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1646,14 +1664,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1662,14 +1680,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1679,14 +1697,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1719,7 +1737,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1735,7 +1753,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1745,14 +1763,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1761,14 +1779,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1778,11 +1796,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1794,14 +1812,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1811,14 +1829,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1827,14 +1845,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1844,14 +1862,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1860,14 +1878,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1877,11 +1895,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1893,14 +1911,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1917,7 +1935,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1939,18 +1957,18 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1959,31 +1977,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1992,14 +2010,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2009,11 +2027,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2025,14 +2043,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2049,7 +2067,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2058,14 +2076,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2075,14 +2093,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2091,14 +2109,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2108,14 +2126,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2124,14 +2142,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2141,14 +2159,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>76</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2164,7 +2182,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2174,11 +2192,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2190,14 +2208,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2207,11 +2225,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2223,14 +2241,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2240,14 +2258,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2256,14 +2274,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2277,10 +2295,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2289,14 +2307,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2306,14 +2324,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2322,14 +2340,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2339,14 +2357,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2355,14 +2373,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2372,14 +2390,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2388,14 +2406,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2405,14 +2423,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2428,7 +2446,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2445,7 +2463,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2461,7 +2479,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2504,14 +2522,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2520,14 +2538,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2537,14 +2555,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2553,14 +2571,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2570,14 +2588,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2586,14 +2604,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2603,14 +2621,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2626,7 +2644,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2636,14 +2654,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2652,14 +2670,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2676,7 +2694,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2692,7 +2710,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2702,14 +2720,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2718,14 +2736,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2735,14 +2753,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2751,14 +2769,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2768,14 +2786,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2784,14 +2802,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2801,11 +2819,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2817,14 +2835,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2834,11 +2852,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2850,31 +2868,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2883,14 +2901,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2900,14 +2918,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2916,14 +2934,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2933,14 +2951,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2949,31 +2967,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2982,31 +3000,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3015,14 +3033,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3032,14 +3050,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3048,14 +3066,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3065,11 +3083,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3081,31 +3099,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3114,14 +3132,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3131,14 +3149,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3147,14 +3165,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3164,14 +3182,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3180,14 +3198,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3197,14 +3215,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3213,14 +3231,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3230,14 +3248,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3246,14 +3264,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3263,7 +3281,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3286,7 +3304,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3296,14 +3314,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3319,7 +3337,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3333,10 +3351,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3345,14 +3363,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3362,14 +3380,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3378,14 +3396,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3395,14 +3413,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3418,13 +3436,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3435,7 +3453,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3451,7 +3469,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3461,11 +3479,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3477,14 +3495,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3494,14 +3512,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3517,13 +3535,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3534,7 +3552,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3550,7 +3568,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3560,14 +3578,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>114</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3576,7 +3594,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3589,15 +3607,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3616,7 +3634,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3626,14 +3644,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3649,7 +3667,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3659,14 +3677,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3675,31 +3693,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3708,14 +3726,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3725,14 +3743,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3748,7 +3766,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3758,14 +3776,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3774,14 +3792,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3791,14 +3809,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3807,14 +3825,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3824,14 +3842,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3840,14 +3858,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3857,14 +3875,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3873,14 +3891,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3890,11 +3908,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3906,14 +3924,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3923,14 +3941,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3939,14 +3957,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3956,14 +3974,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3972,14 +3990,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3989,14 +4007,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4005,14 +4023,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4022,14 +4040,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4038,14 +4056,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4055,14 +4073,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4071,14 +4089,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4088,14 +4106,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4104,14 +4122,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4121,14 +4139,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4137,14 +4155,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4154,11 +4172,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>155</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4170,7 +4188,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4187,14 +4205,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4203,14 +4221,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4220,14 +4238,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4236,14 +4254,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4253,14 +4271,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4269,14 +4287,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4286,14 +4304,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4302,14 +4320,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4319,14 +4337,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4342,7 +4360,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4352,14 +4370,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4368,14 +4386,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4385,14 +4403,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>255</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4401,14 +4419,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4418,14 +4436,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>129</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4434,14 +4452,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4451,14 +4469,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4467,7 +4485,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4484,14 +4502,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4500,14 +4518,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>91</v>
+        <v>259</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4517,14 +4535,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>63</v>
+        <v>260</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4533,31 +4551,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>170</v>
+        <v>263</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>114</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4566,31 +4584,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4599,31 +4617,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>272</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4632,31 +4650,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>255</v>
+        <v>101</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>74</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4665,7 +4683,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4678,18 +4696,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>177</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4698,31 +4716,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>91</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4731,31 +4749,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4764,31 +4782,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4797,31 +4815,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>286</v>
+        <v>23</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>114</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4830,31 +4848,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4863,31 +4881,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>114</v>
+        <v>287</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4896,31 +4914,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4929,31 +4947,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>68</v>
+        <v>293</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>158</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4962,31 +4980,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>125</v>
+        <v>296</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>126</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4995,31 +5013,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5028,31 +5046,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5068,59 +5086,191 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>6412</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>306</v>
       </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>21</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>52</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>135</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>307</v>
       </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>18</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>52</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
         <v>308</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>310</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>261</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>52</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>280</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>311</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>21</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>52</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>150</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>6534.3800000000001</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>312</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>313</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>314</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5664,10 +5814,30 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -377,7 +377,10 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>5:2</t>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>0:6</t>
   </si>
   <si>
     <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
@@ -842,10 +845,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>19:0</t>
+    <t>22:0</t>
   </si>
   <si>
     <t>حلاوة حرير</t>
@@ -2658,10 +2658,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2670,14 +2670,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2687,11 +2687,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2703,14 +2703,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2757,10 +2757,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2769,14 +2769,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2786,11 +2786,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2819,11 +2819,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2852,11 +2852,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2918,11 +2918,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2967,14 +2967,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2984,11 +2984,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3017,11 +3017,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3050,11 +3050,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3116,11 +3116,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3215,11 +3215,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3248,11 +3248,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3281,11 +3281,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3297,14 +3297,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3413,11 +3413,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3446,11 +3446,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3512,11 +3512,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3528,7 +3528,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3545,11 +3545,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3561,14 +3561,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3611,11 +3611,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3677,14 +3677,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3743,11 +3743,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3842,11 +3842,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3858,14 +3858,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3875,11 +3875,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3908,11 +3908,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3941,11 +3941,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3974,11 +3974,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4007,11 +4007,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4040,11 +4040,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>34</v>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4172,11 +4172,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4205,11 +4205,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4238,11 +4238,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4271,11 +4271,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4304,11 +4304,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4337,11 +4337,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4386,14 +4386,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4403,11 +4403,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4419,14 +4419,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4436,11 +4436,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4502,11 +4502,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4518,14 +4518,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4535,14 +4535,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>54</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4568,11 +4568,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4634,11 +4634,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4700,14 +4700,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4716,14 +4716,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4733,14 +4733,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4766,11 +4766,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>278</v>
@@ -4789,7 +4789,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4898,7 +4898,7 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -4971,7 +4971,7 @@
         <v>294</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5037,7 +5037,7 @@
         <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5053,7 +5053,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5086,7 +5086,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5129,11 +5129,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5185,7 +5185,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5228,11 +5228,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="118" ht="24.75" customHeight="1">
       <c r="P118" s="13">
-        <v>6534.3800000000001</v>
+        <v>6559.2200000000003</v>
       </c>
       <c r="Q118" s="13"/>
     </row>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -947,7 +947,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 10:09 PM</t>
+    <t>Monday, 9 June, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -635,6 +635,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -767,12 +776,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
   </si>
   <si>
@@ -947,7 +950,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 10:11 PM</t>
+    <t>Monday, 9 June, 2025 10:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3776,11 +3779,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3792,7 +3795,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3813,7 +3816,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3825,14 +3828,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3842,14 +3845,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3865,7 +3868,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3882,7 +3885,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3898,7 +3901,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3931,7 +3934,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3945,10 +3948,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3957,14 +3960,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3974,14 +3977,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3997,7 +4000,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4014,7 +4017,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4030,7 +4033,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4047,7 +4050,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4063,7 +4066,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4073,14 +4076,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>110</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4089,14 +4092,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4106,14 +4109,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4122,14 +4125,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4139,14 +4142,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4155,14 +4158,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4172,14 +4175,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4195,7 +4198,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4212,7 +4215,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4228,7 +4231,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4271,11 +4274,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>172</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4287,7 +4290,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4304,11 +4307,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4320,14 +4323,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4337,14 +4340,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4360,7 +4363,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4370,14 +4373,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4386,14 +4389,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4403,11 +4406,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4426,7 +4429,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4436,11 +4439,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4452,14 +4455,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>109</v>
+        <v>256</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4469,14 +4472,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4492,7 +4495,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4502,14 +4505,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4518,14 +4521,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4535,14 +4538,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>261</v>
+        <v>203</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>54</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>262</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4551,14 +4554,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4568,14 +4571,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4584,14 +4587,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4601,14 +4604,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>19</v>
+        <v>265</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>28</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4624,7 +4627,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4634,11 +4637,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>269</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4650,14 +4653,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4667,14 +4670,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>182</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4690,24 +4693,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>272</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4716,14 +4719,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4733,11 +4736,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>275</v>
+        <v>178</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>125</v>
@@ -4749,14 +4752,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>275</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4766,14 +4769,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>278</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4782,14 +4785,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4799,14 +4802,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4815,14 +4818,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4832,11 +4835,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4855,7 +4858,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4865,14 +4868,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4881,7 +4884,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4898,14 +4901,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>287</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4914,14 +4917,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4931,14 +4934,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>288</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4947,14 +4950,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>292</v>
+        <v>21</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4964,14 +4967,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4980,14 +4983,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>21</v>
+        <v>293</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4997,14 +5000,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5013,14 +5016,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>299</v>
+        <v>21</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5030,14 +5033,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5046,14 +5049,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>129</v>
+        <v>300</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5063,14 +5066,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5079,14 +5082,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5096,11 +5099,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>166</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5119,7 +5122,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5129,11 +5132,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5152,7 +5155,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5162,11 +5165,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>308</v>
+        <v>136</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>309</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5178,14 +5181,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5195,11 +5198,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5218,7 +5221,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5228,49 +5231,82 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>312</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>21</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>52</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>151</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
         <v>152</v>
       </c>
-      <c t="s" r="Q117" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>6559.2200000000003</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>312</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
+      <c t="s" r="Q118" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>6590.2200000000003</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
         <v>313</v>
       </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
         <v>314</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>315</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5834,10 +5870,15 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -773,6 +782,9 @@
     <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
   </si>
   <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -818,9 +830,6 @@
     <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
   </si>
   <si>
-    <t>81.00</t>
-  </si>
-  <si>
     <t>40.5000</t>
   </si>
   <si>
@@ -920,6 +929,9 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>فرشه اسنان SENSODYNE</t>
+  </si>
+  <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
@@ -944,13 +956,16 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>معجون سنسوداين 100مل</t>
+  </si>
+  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 10:21 PM</t>
+    <t>Monday, 9 June, 2025 10:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1756,7 +1771,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1766,11 +1781,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1782,14 +1797,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1822,7 +1837,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1839,7 +1854,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1855,7 +1870,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1888,7 +1903,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1898,14 +1913,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1914,14 +1929,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1931,14 +1946,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1954,24 +1969,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1980,7 +1995,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1993,7 +2008,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -2004,7 +2019,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2020,24 +2035,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2046,14 +2061,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2086,7 +2101,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2119,7 +2134,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2129,14 +2144,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2145,14 +2160,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2162,14 +2177,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2178,14 +2193,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2195,14 +2210,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2211,14 +2226,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2251,7 +2266,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2261,14 +2276,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2277,14 +2292,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2301,7 +2316,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2317,7 +2332,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2331,7 +2346,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2343,14 +2358,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2364,10 +2379,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2376,14 +2391,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2393,11 +2408,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2426,14 +2441,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>25</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2442,14 +2457,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2459,11 +2474,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2482,7 +2497,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2499,7 +2514,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2515,7 +2530,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2525,14 +2540,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2541,14 +2556,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2565,7 +2580,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2581,7 +2596,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2598,7 +2613,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2614,7 +2629,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2624,14 +2639,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2657,14 +2672,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>123</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2690,14 +2705,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2706,14 +2721,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2723,11 +2738,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2739,14 +2754,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2756,14 +2771,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2779,7 +2794,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2789,14 +2804,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>137</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2812,7 +2827,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2829,7 +2844,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2845,7 +2860,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2878,7 +2893,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2888,14 +2903,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2904,14 +2919,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2921,11 +2936,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2944,7 +2959,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2954,11 +2969,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2970,28 +2985,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3003,20 +3018,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3043,7 +3058,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3090,10 +3105,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3102,31 +3117,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3142,21 +3157,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3168,14 +3183,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3185,11 +3200,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3201,14 +3216,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3218,7 +3233,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3241,7 +3256,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3274,7 +3289,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3291,7 +3306,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3307,7 +3322,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3317,14 +3332,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3340,7 +3355,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3350,11 +3365,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3366,14 +3381,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3383,11 +3398,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3399,14 +3414,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3416,7 +3431,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3472,7 +3487,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3482,14 +3497,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3498,14 +3513,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3515,11 +3530,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3531,31 +3546,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3571,21 +3586,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3597,14 +3612,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3614,14 +3629,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>113</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3637,7 +3652,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3647,14 +3662,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3663,14 +3678,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3680,14 +3695,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3709,18 +3724,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3729,7 +3744,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3742,15 +3757,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3762,14 +3777,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3779,7 +3794,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3802,7 +3817,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3812,11 +3827,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3828,14 +3843,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3845,11 +3860,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3861,14 +3876,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3878,14 +3893,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3901,7 +3916,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3918,7 +3933,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3934,7 +3949,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3967,7 +3982,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3981,10 +3996,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3993,14 +4008,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4010,14 +4025,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4033,7 +4048,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4050,7 +4065,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4066,7 +4081,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4083,7 +4098,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4099,7 +4114,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4109,14 +4124,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4125,14 +4140,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4142,14 +4157,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4158,14 +4173,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4175,14 +4190,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4191,14 +4206,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4208,14 +4223,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4231,7 +4246,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4248,7 +4263,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4264,7 +4279,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4307,11 +4322,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4323,7 +4338,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4340,11 +4355,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4356,14 +4371,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4373,14 +4388,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>165</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4396,7 +4411,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4406,14 +4421,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4422,14 +4437,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4439,11 +4454,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4455,14 +4470,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4472,11 +4487,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4488,14 +4503,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4505,14 +4520,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4521,14 +4536,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4538,11 +4553,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>259</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4554,14 +4569,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>261</v>
+        <v>112</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4571,14 +4586,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>263</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4587,14 +4602,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4604,11 +4619,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4620,14 +4635,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4637,14 +4652,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4660,7 +4675,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4677,7 +4692,7 @@
         <v>270</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4693,7 +4708,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4703,14 +4718,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4726,24 +4741,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>273</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4759,24 +4774,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>275</v>
+        <v>104</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4785,7 +4800,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4798,18 +4813,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>279</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4818,31 +4833,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4851,20 +4866,20 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4872,10 +4887,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q106" s="12">
         <v>282</v>
-      </c>
-      <c t="s" r="Q106" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4884,31 +4899,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4924,24 +4939,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>288</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4950,31 +4965,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4983,31 +4998,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>125</v>
+        <v>291</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5016,7 +5031,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5029,15 +5044,15 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5049,31 +5064,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5082,28 +5097,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5115,31 +5130,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>166</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5148,28 +5163,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5181,28 +5196,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>21</v>
@@ -5214,28 +5229,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>263</v>
+        <v>128</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>281</v>
+        <v>82</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>282</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5247,7 +5262,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5260,53 +5275,185 @@
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>6590.2200000000003</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>312</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>18</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>55</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
         <v>313</v>
       </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
         <v>314</v>
       </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c t="s" r="Q119" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>315</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>21</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>55</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>224</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>316</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>267</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>55</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>284</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>317</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>21</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>55</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>154</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6815.9499999999998</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>318</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>319</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>320</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5875,10 +6022,30 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -965,7 +965,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 10:28 PM</t>
+    <t>Monday, 9 June, 2025 10:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -788,6 +788,12 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
   </si>
   <si>
@@ -800,63 +806,75 @@
     <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
   </si>
   <si>
+    <t>87.7800</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8682:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>WELLINTA 150 MG 30S.R.F.C.TABS.</t>
+  </si>
+  <si>
+    <t>291.00</t>
+  </si>
+  <si>
+    <t>291.0000</t>
+  </si>
+  <si>
+    <t>ZANOGLIDE 4/30 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>ZINC OLIVE BABY CREAM 75 GM</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
+  </si>
+  <si>
+    <t>40.5000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>ايفا كريم 170 جم</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
     <t>66.0000</t>
   </si>
   <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8682:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>WELLINTA 150 MG 30S.R.F.C.TABS.</t>
-  </si>
-  <si>
-    <t>291.00</t>
-  </si>
-  <si>
-    <t>291.0000</t>
-  </si>
-  <si>
-    <t>ZANOGLIDE 4/30 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
-  </si>
-  <si>
-    <t>40.5000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>ايفا كريم 170 جم</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>22:0</t>
   </si>
   <si>
@@ -965,7 +983,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 10:42 PM</t>
+    <t>Monday, 9 June, 2025 11:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4543,7 +4561,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>260</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4553,14 +4571,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>134</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4576,7 +4594,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4586,14 +4604,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4602,14 +4620,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4619,14 +4637,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>263</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4642,7 +4660,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>265</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,14 +4670,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>57</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>267</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4668,14 +4686,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4685,14 +4703,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>270</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>269</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4701,14 +4719,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4718,14 +4736,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4734,14 +4752,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4751,11 +4769,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>273</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4774,7 +4792,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>104</v>
+        <v>275</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4784,11 +4802,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>185</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4800,31 +4818,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>181</v>
+        <v>34</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4833,31 +4851,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>278</v>
+        <v>104</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4883,14 +4901,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>281</v>
+        <v>181</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>282</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4899,14 +4917,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4920,10 +4938,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>285</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4932,14 +4950,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4949,14 +4967,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>288</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4965,14 +4983,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>269</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4982,14 +5000,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4998,14 +5016,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5015,14 +5033,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>291</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5031,14 +5049,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5048,14 +5066,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5071,7 +5089,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>296</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5081,14 +5099,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>128</v>
+        <v>297</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5097,7 +5115,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5114,11 +5132,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5130,14 +5148,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5147,11 +5165,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>128</v>
@@ -5163,14 +5181,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5180,11 +5198,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>154</v>
+        <v>306</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>155</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>21</v>
@@ -5196,14 +5214,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>132</v>
+        <v>309</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5213,14 +5231,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5229,7 +5247,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5246,11 +5264,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5262,14 +5280,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5279,11 +5297,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>139</v>
+        <v>314</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>140</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5295,14 +5313,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5312,11 +5330,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>313</v>
+        <v>82</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>314</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5328,7 +5346,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5345,11 +5363,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>224</v>
+        <v>139</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>305</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5361,14 +5379,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>267</v>
+        <v>18</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5378,11 +5396,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5394,7 +5412,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5411,49 +5429,115 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
+        <v>311</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>322</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>269</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>55</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>290</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>323</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>21</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>55</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>154</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
         <v>155</v>
       </c>
-      <c t="s" r="Q122" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6815.9499999999998</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>318</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
-        <v>319</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
-        <v>320</v>
-      </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c t="s" r="Q124" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>6924.7299999999996</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>324</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>325</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>326</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6042,10 +6126,20 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -722,6 +722,9 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>SKINATRA TOP. OINT. 15 GM</t>
+  </si>
+  <si>
     <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -983,7 +986,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 11:01 PM</t>
+    <t>Monday, 9 June, 2025 11:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4175,14 +4178,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4198,7 +4201,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4208,14 +4211,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4224,14 +4227,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4241,14 +4244,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4257,14 +4260,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4274,14 +4277,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4290,14 +4293,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4307,14 +4310,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4323,14 +4326,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4340,11 +4343,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4356,7 +4359,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4373,11 +4376,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4406,11 +4409,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4429,7 +4432,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4439,14 +4442,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>165</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4455,14 +4458,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4472,14 +4475,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4505,11 +4508,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4528,7 +4531,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4538,11 +4541,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4561,7 +4564,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4571,14 +4574,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4587,14 +4590,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4604,14 +4607,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4620,14 +4623,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>112</v>
+        <v>263</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4637,14 +4640,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4660,7 +4663,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4670,14 +4673,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>265</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4686,14 +4689,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>267</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4703,14 +4706,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>57</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>269</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4719,14 +4722,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>268</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4736,14 +4739,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>272</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4752,14 +4755,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4769,14 +4772,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>19</v>
+        <v>272</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>28</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4792,7 +4795,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4802,14 +4805,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>276</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4818,14 +4821,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>276</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4835,14 +4838,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>34</v>
+        <v>235</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4851,14 +4854,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4868,14 +4871,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4891,24 +4894,24 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>281</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4917,14 +4920,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4934,11 +4937,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>284</v>
+        <v>181</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>128</v>
@@ -4950,14 +4953,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4967,14 +4970,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>287</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>288</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4983,14 +4986,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>269</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5000,14 +5003,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>289</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5016,14 +5019,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5033,11 +5036,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5056,7 +5059,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5066,14 +5069,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5082,7 +5085,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5099,14 +5102,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5115,14 +5118,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5132,14 +5135,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5148,14 +5151,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>302</v>
+        <v>21</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5165,14 +5168,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5181,14 +5184,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5198,14 +5201,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5214,14 +5217,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>309</v>
+        <v>21</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5231,14 +5234,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5247,14 +5250,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>128</v>
+        <v>310</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5264,14 +5267,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>154</v>
+        <v>311</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>155</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5287,7 +5290,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5297,11 +5300,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>314</v>
+        <v>154</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>315</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5313,14 +5316,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5330,11 +5333,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>82</v>
+        <v>315</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>169</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5353,7 +5356,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5363,11 +5366,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5386,7 +5389,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5396,11 +5399,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>319</v>
+        <v>139</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>320</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5412,14 +5415,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5429,11 +5432,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5452,7 +5455,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>269</v>
+        <v>21</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5462,11 +5465,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>290</v>
+        <v>224</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5485,7 +5488,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5495,49 +5498,82 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>154</v>
+        <v>291</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>324</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>21</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>55</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>154</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
         <v>155</v>
       </c>
-      <c t="s" r="Q124" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>6924.7299999999996</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>324</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
+      <c t="s" r="Q125" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>6983.7299999999996</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
         <v>325</v>
       </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
         <v>326</v>
       </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>327</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6136,10 +6172,15 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -299,6 +299,15 @@
     <t>27.00</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -902,10 +911,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>28:0</t>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>29:0</t>
   </si>
   <si>
     <t xml:space="preserve">شامبو بانتين 190 مللي </t>
@@ -986,7 +995,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 11:09 PM</t>
+    <t>Monday, 9 June, 2025 11:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2419,7 +2428,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2429,14 +2438,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2445,14 +2454,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2462,11 +2471,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2495,14 +2504,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>25</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2511,14 +2520,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2528,11 +2537,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2551,7 +2560,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2568,7 +2577,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2584,7 +2593,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2594,14 +2603,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2610,14 +2619,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2634,7 +2643,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2650,7 +2659,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2667,7 +2676,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2683,7 +2692,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2693,14 +2702,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2726,14 +2735,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2759,14 +2768,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2775,14 +2784,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2792,11 +2801,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2808,14 +2817,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2825,14 +2834,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2848,7 +2857,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2858,14 +2867,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>140</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2881,7 +2890,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2898,7 +2907,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2914,7 +2923,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2947,7 +2956,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2957,14 +2966,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2973,14 +2982,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2990,11 +2999,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -3013,7 +3022,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3023,11 +3032,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3039,28 +3048,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3072,20 +3081,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3112,7 +3121,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3159,10 +3168,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3171,31 +3180,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3211,21 +3220,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3237,14 +3246,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3254,11 +3263,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3270,14 +3279,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3287,7 +3296,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3310,7 +3319,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3343,7 +3352,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3360,7 +3369,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3376,7 +3385,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3386,14 +3395,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3409,7 +3418,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3419,11 +3428,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3435,14 +3444,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3452,11 +3461,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3468,14 +3477,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3485,7 +3494,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3541,7 +3550,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3551,14 +3560,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3567,14 +3576,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3584,11 +3593,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3600,31 +3609,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3640,21 +3649,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3666,14 +3675,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3683,14 +3692,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3706,7 +3715,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3716,14 +3725,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3732,14 +3741,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3749,14 +3758,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3778,18 +3787,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3798,7 +3807,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3811,15 +3820,15 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3831,14 +3840,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3848,7 +3857,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3871,7 +3880,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3881,11 +3890,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3897,14 +3906,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3918,7 +3927,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3930,14 +3939,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3947,14 +3956,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>69</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3970,7 +3979,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3987,7 +3996,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4003,7 +4012,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4036,7 +4045,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4050,10 +4059,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4062,14 +4071,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4079,14 +4088,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4102,7 +4111,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4119,7 +4128,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4135,7 +4144,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4152,7 +4161,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4168,7 +4177,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4178,14 +4187,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4194,7 +4203,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4211,14 +4220,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4227,14 +4236,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4244,14 +4253,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4260,14 +4269,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4277,14 +4286,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4293,14 +4302,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4310,14 +4319,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4333,7 +4342,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4350,7 +4359,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4366,7 +4375,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4409,11 +4418,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4425,7 +4434,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4442,11 +4451,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4458,14 +4467,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4475,14 +4484,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4498,7 +4507,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4508,14 +4517,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4524,14 +4533,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4541,11 +4550,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4557,14 +4566,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4574,11 +4583,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4590,14 +4599,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4607,14 +4616,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4623,14 +4632,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4640,14 +4649,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>134</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4656,14 +4665,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4673,14 +4682,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4689,14 +4698,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4706,14 +4715,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>266</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4722,14 +4731,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4739,14 +4748,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>57</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>270</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4755,14 +4764,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>271</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4776,10 +4785,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q102" s="12">
         <v>273</v>
-      </c>
-      <c t="s" r="Q102" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4795,7 +4804,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4805,14 +4814,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>19</v>
+        <v>275</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>28</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4821,14 +4830,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4838,14 +4847,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>277</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4861,7 +4870,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>21</v>
+        <v>279</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4871,14 +4880,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4887,14 +4896,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4904,14 +4913,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4920,31 +4929,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4953,14 +4962,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>284</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4970,14 +4979,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>285</v>
+        <v>184</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>83</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4993,7 +5002,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>287</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5003,14 +5012,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>288</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>289</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5019,14 +5028,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>270</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5036,14 +5045,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q110" s="12">
         <v>292</v>
-      </c>
-      <c t="s" r="Q110" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5059,7 +5068,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>23</v>
+        <v>273</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5069,11 +5078,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5085,14 +5094,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5102,14 +5111,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5118,7 +5127,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5135,14 +5144,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>298</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5158,7 +5167,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5168,14 +5177,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q114" s="12">
         <v>301</v>
-      </c>
-      <c t="s" r="Q114" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5191,7 +5200,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>303</v>
+        <v>21</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5201,14 +5210,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5217,14 +5226,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>21</v>
+        <v>306</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5241,7 +5250,7 @@
         <v>308</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5257,7 +5266,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>310</v>
+        <v>21</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5267,14 +5276,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5283,14 +5292,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>128</v>
+        <v>313</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5300,14 +5309,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>154</v>
+        <v>314</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>155</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5316,14 +5325,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5333,11 +5342,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>315</v>
+        <v>157</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>316</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5356,7 +5365,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5366,11 +5375,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5382,14 +5391,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5399,11 +5408,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5415,14 +5424,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5432,11 +5441,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>320</v>
+        <v>142</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>321</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5455,7 +5464,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5465,11 +5474,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>224</v>
+        <v>323</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5481,14 +5490,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>270</v>
+        <v>21</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5498,11 +5507,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>291</v>
+        <v>227</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>21</v>
@@ -5514,14 +5523,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5531,49 +5540,82 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>154</v>
+        <v>294</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>6983.7299999999996</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>325</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
-        <v>326</v>
-      </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
         <v>327</v>
       </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>21</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>55</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>157</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>7012.9549999999999</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>328</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>329</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>330</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6177,10 +6219,15 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -848,7 +848,7 @@
     <t>ZINC OLIVE BABY CREAM 75 GM</t>
   </si>
   <si>
-    <t>9:0</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>69.0000</t>
@@ -948,9 +948,6 @@
   </si>
   <si>
     <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>10:0</t>
   </si>
   <si>
     <t>55.00</t>
@@ -2428,7 +2425,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -4210,7 +4207,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4639,7 +4636,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4738,7 +4735,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -5299,7 +5296,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5309,11 +5306,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>131</v>
@@ -5325,7 +5322,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5358,7 +5355,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5375,11 +5372,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5391,7 +5388,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5424,7 +5421,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5457,7 +5454,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5474,11 +5471,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5490,7 +5487,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5511,7 +5508,7 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>21</v>
@@ -5523,7 +5520,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5556,7 +5553,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5591,7 +5588,7 @@
     </row>
     <row r="128" ht="16.5" customHeight="1">
       <c t="s" r="A128" s="14">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -5599,13 +5596,13 @@
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
       <c t="s" r="G128" s="15">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
       <c r="J128" s="16"/>
       <c t="s" r="K128" s="17">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L128" s="17"/>
       <c r="M128" s="17"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -848,106 +848,109 @@
     <t>ZINC OLIVE BABY CREAM 75 GM</t>
   </si>
   <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
+  </si>
+  <si>
+    <t>40.5000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>ايفا كريم 170 جم</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>زيت برافين</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شامبو بانتين 190 مللي </t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>شامبو كلير 1 كيس</t>
+  </si>
+  <si>
+    <t>117:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>شامبو كلير للرجال 180مل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
     <t>10:0</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
-  </si>
-  <si>
-    <t>40.5000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>ايفا كريم 170 جم</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>زيت برافين</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شامبو بانتين 190 مللي </t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>شامبو كلير 1 كيس</t>
-  </si>
-  <si>
-    <t>117:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t>شامبو كلير للرجال 180مل</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
   </si>
   <si>
     <t>55.00</t>
@@ -4207,7 +4210,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4636,7 +4639,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4735,7 +4738,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -5296,7 +5299,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5306,11 +5309,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>131</v>
@@ -5322,7 +5325,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5355,7 +5358,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5372,11 +5375,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5388,7 +5391,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5421,7 +5424,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5454,7 +5457,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5471,11 +5474,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5487,7 +5490,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5508,7 +5511,7 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>21</v>
@@ -5520,7 +5523,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5553,7 +5556,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5588,7 +5591,7 @@
     </row>
     <row r="128" ht="16.5" customHeight="1">
       <c t="s" r="A128" s="14">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -5596,13 +5599,13 @@
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
       <c t="s" r="G128" s="15">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
       <c r="J128" s="16"/>
       <c t="s" r="K128" s="17">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L128" s="17"/>
       <c r="M128" s="17"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -995,7 +995,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 11:13 PM</t>
+    <t>Monday, 9 June, 2025 11:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2428,7 +2428,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -995,7 +995,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 11:14 PM</t>
+    <t>Monday, 9 June, 2025 11:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -689,6 +689,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
   </si>
   <si>
@@ -995,7 +1004,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 11:15 PM</t>
+    <t>Monday, 9 June, 2025 11:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4062,7 +4071,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4078,7 +4087,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4092,10 +4101,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4104,14 +4113,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4121,14 +4130,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4144,7 +4153,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4161,7 +4170,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4177,7 +4186,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4194,7 +4203,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4210,7 +4219,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4220,14 +4229,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4236,7 +4245,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4253,14 +4262,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4269,14 +4278,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4286,14 +4295,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4302,14 +4311,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4319,14 +4328,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4335,14 +4344,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4352,14 +4361,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4375,7 +4384,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4392,7 +4401,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4408,7 +4417,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4451,11 +4460,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>177</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4467,7 +4476,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4484,11 +4493,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4500,14 +4509,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4517,14 +4526,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>168</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4540,7 +4549,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4550,14 +4559,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4566,7 +4575,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4583,11 +4592,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4599,14 +4608,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4616,11 +4625,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4632,14 +4641,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4649,14 +4658,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>101</v>
+        <v>215</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4665,14 +4674,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4682,14 +4691,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4698,14 +4707,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>115</v>
+        <v>269</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4715,14 +4724,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4731,14 +4740,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4748,14 +4757,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>269</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4764,14 +4773,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>271</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4781,14 +4790,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>272</v>
+        <v>209</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>57</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>273</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4797,14 +4806,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4818,10 +4827,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q103" s="12">
         <v>276</v>
-      </c>
-      <c t="s" r="Q103" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4837,7 +4846,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4847,14 +4856,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>19</v>
+        <v>278</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4863,14 +4872,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4880,14 +4889,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4903,7 +4912,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>21</v>
+        <v>282</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4913,14 +4922,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>34</v>
+        <v>241</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4929,14 +4938,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4946,14 +4955,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>188</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4962,31 +4971,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>285</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4995,14 +5004,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5012,11 +5021,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>288</v>
+        <v>184</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>83</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>131</v>
@@ -5035,7 +5044,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5045,14 +5054,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>291</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>292</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5061,14 +5070,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>273</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5078,14 +5087,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q111" s="12">
         <v>295</v>
-      </c>
-      <c t="s" r="Q111" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5101,7 +5110,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>23</v>
+        <v>276</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5111,11 +5120,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5127,14 +5136,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5144,14 +5153,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5160,7 +5169,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5177,14 +5186,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>301</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5200,7 +5209,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5210,14 +5219,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q115" s="12">
         <v>304</v>
-      </c>
-      <c t="s" r="Q115" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5233,7 +5242,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>306</v>
+        <v>21</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5243,14 +5252,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5259,14 +5268,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>21</v>
+        <v>309</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5283,7 +5292,7 @@
         <v>311</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5299,7 +5308,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>313</v>
+        <v>21</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5309,14 +5318,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5325,14 +5334,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>131</v>
+        <v>316</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5342,14 +5351,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>157</v>
+        <v>317</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>158</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5358,14 +5367,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5375,11 +5384,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>318</v>
+        <v>157</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5398,7 +5407,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5408,11 +5417,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>172</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5424,14 +5433,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5441,11 +5450,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5457,14 +5466,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5474,11 +5483,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>323</v>
+        <v>142</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>324</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5497,7 +5506,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5507,11 +5516,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>227</v>
+        <v>326</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>21</v>
@@ -5523,14 +5532,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>273</v>
+        <v>21</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5540,11 +5549,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5556,14 +5565,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>21</v>
+        <v>276</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5573,49 +5582,82 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>157</v>
+        <v>297</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>330</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>21</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>55</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>157</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
         <v>158</v>
       </c>
-      <c t="s" r="Q126" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>7012.9549999999999</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>328</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>329</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>330</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c t="s" r="Q127" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>7068.9549999999999</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>331</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>332</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>333</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6224,10 +6266,15 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -530,6 +530,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
@@ -551,9 +560,6 @@
     <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
     <t>19.0000</t>
   </si>
   <si>
@@ -648,9 +654,6 @@
   </si>
   <si>
     <t>NORGESIC 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.0000</t>
   </si>
   <si>
     <t>OPLEX-N SYRUP 125ML</t>
@@ -3361,7 +3364,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3394,7 +3397,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3411,7 +3414,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3427,7 +3430,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3437,14 +3440,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3453,14 +3456,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3474,7 +3477,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3493,7 +3496,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3503,11 +3506,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3526,7 +3529,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3536,11 +3539,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3552,7 +3555,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3569,11 +3572,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3585,14 +3588,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3602,14 +3605,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3625,7 +3628,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3635,7 +3638,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3658,24 +3661,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3684,28 +3687,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3717,14 +3720,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3734,14 +3737,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3750,14 +3753,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3767,14 +3770,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3790,7 +3793,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3800,14 +3803,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3816,7 +3819,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3829,18 +3832,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3849,7 +3852,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3862,15 +3865,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3889,7 +3892,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3899,11 +3902,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3915,7 +3918,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3932,11 +3935,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3948,7 +3951,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3969,7 +3972,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3988,7 +3991,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3998,14 +4001,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>69</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4014,14 +4017,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4031,14 +4034,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4047,14 +4050,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4064,14 +4067,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4080,7 +4083,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4097,14 +4100,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4113,14 +4116,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4130,14 +4133,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4146,14 +4149,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4163,14 +4166,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4179,14 +4182,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4196,14 +4199,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4212,14 +4215,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4229,14 +4232,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4245,14 +4248,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4262,14 +4265,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4295,14 +4298,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4318,7 +4321,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4328,14 +4331,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4344,14 +4347,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4361,14 +4364,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4377,14 +4380,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4394,14 +4397,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4410,14 +4413,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4427,14 +4430,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4443,14 +4446,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4460,11 +4463,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4476,7 +4479,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4493,11 +4496,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>178</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4526,11 +4529,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4549,7 +4552,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4559,14 +4562,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>168</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4575,14 +4578,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4592,14 +4595,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>186</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4625,11 +4628,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4648,7 +4651,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4658,11 +4661,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4681,7 +4684,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4691,14 +4694,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>101</v>
+        <v>216</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4707,14 +4710,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>269</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4724,14 +4727,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>137</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4740,14 +4743,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>115</v>
+        <v>270</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4757,14 +4760,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4780,7 +4783,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4790,14 +4793,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4806,14 +4809,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,14 +4826,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>57</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>276</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4839,14 +4842,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>275</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4856,14 +4859,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>279</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>277</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4872,14 +4875,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4889,14 +4892,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>19</v>
+        <v>279</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>28</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4912,7 +4915,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4922,14 +4925,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>283</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4938,14 +4941,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4955,14 +4958,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4971,14 +4974,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4988,14 +4991,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>188</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5011,24 +5014,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>288</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5037,14 +5040,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>290</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5054,11 +5057,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>291</v>
+        <v>186</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>83</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>131</v>
@@ -5070,14 +5073,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5087,14 +5090,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>294</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>295</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5103,14 +5106,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5120,14 +5123,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5136,14 +5139,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>23</v>
+        <v>277</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5153,11 +5156,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5176,7 +5179,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5186,14 +5189,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5202,7 +5205,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5219,14 +5222,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>304</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5235,14 +5238,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5252,14 +5255,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>305</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5268,14 +5271,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>309</v>
+        <v>21</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5285,14 +5288,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5301,14 +5304,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5318,14 +5321,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5334,14 +5337,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>316</v>
+        <v>21</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5351,14 +5354,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5367,14 +5370,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>131</v>
+        <v>317</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5384,14 +5387,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>157</v>
+        <v>318</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>158</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5407,7 +5410,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5417,11 +5420,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5433,14 +5436,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5450,11 +5453,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>82</v>
+        <v>322</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>172</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5473,7 +5476,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5483,11 +5486,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5506,7 +5509,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5516,11 +5519,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>326</v>
+        <v>142</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>327</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>21</v>
@@ -5532,14 +5535,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5549,11 +5552,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>230</v>
+        <v>327</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5572,7 +5575,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>276</v>
+        <v>21</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5582,11 +5585,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>21</v>
@@ -5605,7 +5608,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>21</v>
+        <v>277</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5615,49 +5618,82 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>157</v>
+        <v>298</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>331</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>21</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>55</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>157</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
         <v>158</v>
       </c>
-      <c t="s" r="Q127" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>7068.9549999999999</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>331</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
+      <c t="s" r="Q128" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>7106.9549999999999</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
         <v>332</v>
       </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
         <v>333</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>334</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6271,10 +6307,15 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -452,6 +452,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
     <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -1007,7 +1016,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 11:19 PM</t>
+    <t>Monday, 9 June, 2025 11:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2968,7 +2977,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3001,7 +3010,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3011,14 +3020,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3027,14 +3036,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3044,11 +3053,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3067,7 +3076,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3077,11 +3086,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3093,28 +3102,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3126,20 +3135,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3166,7 +3175,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3213,10 +3222,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3225,31 +3234,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3265,21 +3274,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3291,14 +3300,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3308,11 +3317,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3324,14 +3333,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3341,7 +3350,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3397,7 +3406,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3430,7 +3439,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3440,14 +3449,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3456,14 +3465,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3473,14 +3482,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3496,7 +3505,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3506,11 +3515,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3522,14 +3531,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3539,11 +3548,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3555,14 +3564,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3572,7 +3581,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3628,7 +3637,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3638,14 +3647,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3654,14 +3663,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3671,11 +3680,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3687,31 +3696,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3727,21 +3736,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3753,14 +3762,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3770,14 +3779,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3793,7 +3802,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3803,14 +3812,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3819,14 +3828,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3836,14 +3845,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3865,18 +3874,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3885,7 +3894,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3898,15 +3907,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3918,14 +3927,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3935,11 +3944,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3968,11 +3977,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3984,7 +3993,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4005,7 +4014,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4017,14 +4026,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4034,14 +4043,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>69</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4057,7 +4066,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4074,7 +4083,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4090,7 +4099,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4107,7 +4116,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4140,7 +4149,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4156,7 +4165,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4170,10 +4179,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4182,14 +4191,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4199,14 +4208,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4222,7 +4231,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4239,7 +4248,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4255,7 +4264,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4272,7 +4281,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4288,7 +4297,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4298,14 +4307,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4314,7 +4323,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4331,14 +4340,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4347,14 +4356,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4364,14 +4373,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4380,14 +4389,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4397,14 +4406,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4413,14 +4422,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4430,14 +4439,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4453,7 +4462,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4470,7 +4479,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4486,7 +4495,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4529,11 +4538,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4545,7 +4554,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4562,11 +4571,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4578,14 +4587,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4595,14 +4604,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4618,7 +4627,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4628,14 +4637,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>188</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4644,7 +4653,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4661,11 +4670,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4677,14 +4686,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4694,11 +4703,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4710,14 +4719,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4727,14 +4736,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>101</v>
+        <v>219</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4743,14 +4752,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>270</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4760,14 +4769,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>137</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4776,14 +4785,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>115</v>
+        <v>273</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4793,14 +4802,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4809,14 +4818,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4826,14 +4835,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>273</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4842,14 +4851,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4859,14 +4868,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>57</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>277</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4875,14 +4884,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4896,10 +4905,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q105" s="12">
         <v>280</v>
-      </c>
-      <c t="s" r="Q105" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4915,7 +4924,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4925,14 +4934,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>19</v>
+        <v>282</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>28</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4941,14 +4950,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4958,14 +4967,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>284</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4981,7 +4990,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>21</v>
+        <v>286</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4991,14 +5000,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5007,14 +5016,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5024,14 +5033,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>190</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5040,31 +5049,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>289</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5073,14 +5082,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5090,11 +5099,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>292</v>
+        <v>189</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>131</v>
@@ -5113,7 +5122,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5123,14 +5132,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>295</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>296</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5139,14 +5148,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5156,14 +5165,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q113" s="12">
         <v>299</v>
-      </c>
-      <c t="s" r="Q113" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5179,7 +5188,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>23</v>
+        <v>280</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5189,11 +5198,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5205,14 +5214,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5222,14 +5231,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5238,7 +5247,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5255,14 +5264,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>305</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5278,7 +5287,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5288,14 +5297,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q117" s="12">
         <v>308</v>
-      </c>
-      <c t="s" r="Q117" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5311,7 +5320,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>310</v>
+        <v>21</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5321,14 +5330,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5337,14 +5346,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>21</v>
+        <v>313</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5361,7 +5370,7 @@
         <v>315</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5377,7 +5386,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>317</v>
+        <v>21</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5387,14 +5396,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5403,14 +5412,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>131</v>
+        <v>320</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5420,14 +5429,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>157</v>
+        <v>321</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>158</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5436,14 +5445,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5453,11 +5462,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>322</v>
+        <v>160</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>323</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>21</v>
@@ -5476,7 +5485,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5486,11 +5495,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>82</v>
+        <v>325</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>172</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5502,14 +5511,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5519,11 +5528,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>21</v>
@@ -5535,14 +5544,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5552,11 +5561,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>327</v>
+        <v>142</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>328</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5575,7 +5584,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5585,11 +5594,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>231</v>
+        <v>330</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>21</v>
@@ -5601,14 +5610,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5618,11 +5627,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>298</v>
+        <v>234</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>21</v>
@@ -5634,14 +5643,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>21</v>
+        <v>280</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5651,49 +5660,82 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>157</v>
+        <v>301</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>158</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>7106.9549999999999</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>332</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
-        <v>333</v>
-      </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>334</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>21</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>55</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>160</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>7206.9449999999997</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>335</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>336</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>337</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6312,10 +6354,15 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -434,6 +434,12 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>FLOTAC 75MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -482,6 +488,15 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>GLOBVITRON CAPS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
     <t>GUAVA SYRUP 120 ML</t>
   </si>
   <si>
@@ -701,6 +716,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>PANTOGAR 90 CAPS</t>
+  </si>
+  <si>
+    <t>243.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
     <t>PANTOLOC 20MG 14 E.C. TAB.</t>
   </si>
   <si>
@@ -1016,7 +1040,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 11:29 PM</t>
+    <t>Monday, 9 June, 2025 11:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2911,7 +2935,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2925,10 +2949,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2937,14 +2961,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2954,14 +2978,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2970,7 +2994,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2987,11 +3011,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3003,14 +3027,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3020,11 +3044,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3036,14 +3060,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3053,14 +3077,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3069,14 +3093,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3086,11 +3110,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3102,14 +3126,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3119,11 +3143,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3135,14 +3159,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3175,7 +3199,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3185,11 +3209,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3201,28 +3225,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3234,14 +3258,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3251,14 +3275,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3274,13 +3298,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3317,14 +3341,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3333,7 +3357,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3346,15 +3370,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3366,7 +3390,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3383,11 +3407,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3406,7 +3430,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3416,11 +3440,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3432,14 +3456,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3449,11 +3473,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3465,7 +3489,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3482,14 +3506,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3505,7 +3529,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3515,11 +3539,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3538,7 +3562,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3548,14 +3572,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3571,7 +3595,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3581,11 +3605,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3597,14 +3621,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3614,11 +3638,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3637,7 +3661,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3647,11 +3671,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3663,14 +3687,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3680,14 +3704,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3703,7 +3727,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3713,14 +3737,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3729,31 +3753,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3769,7 +3793,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3779,14 +3803,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3795,31 +3819,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3828,14 +3852,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3845,11 +3869,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3868,7 +3892,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3885,7 +3909,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3901,21 +3925,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3927,7 +3951,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3944,14 +3968,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3960,28 +3984,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3993,14 +4017,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4010,11 +4034,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4043,11 +4067,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>69</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4059,14 +4083,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4076,14 +4100,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>69</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4092,14 +4116,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4109,14 +4133,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>69</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4125,14 +4149,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4142,14 +4166,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4158,14 +4182,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4175,11 +4199,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4191,14 +4215,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4208,14 +4232,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4231,7 +4255,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4248,7 +4272,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4264,7 +4288,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4281,7 +4305,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4297,7 +4321,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4311,10 +4335,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4323,14 +4347,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4340,14 +4364,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4356,7 +4380,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4373,14 +4397,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>116</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4389,14 +4413,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4406,14 +4430,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4422,14 +4446,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4439,11 +4463,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4455,14 +4479,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4472,14 +4496,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>116</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4488,7 +4512,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4505,14 +4529,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4528,7 +4552,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4542,7 +4566,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4554,14 +4578,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4571,14 +4595,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4587,14 +4611,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4604,11 +4628,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4620,14 +4644,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4637,14 +4661,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4653,14 +4677,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4670,11 +4694,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4686,14 +4710,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4703,11 +4727,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4719,14 +4743,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4736,14 +4760,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4752,14 +4776,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4769,14 +4793,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4785,14 +4809,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>273</v>
+        <v>115</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4802,11 +4826,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4818,14 +4842,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4835,14 +4859,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4851,14 +4875,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4868,14 +4892,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4884,14 +4908,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4901,14 +4925,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>279</v>
+        <v>136</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>280</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4917,14 +4941,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4934,14 +4958,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>283</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4950,14 +4974,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4967,14 +4991,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>28</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5000,14 +5024,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>287</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>288</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5016,14 +5040,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5033,14 +5057,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5049,14 +5073,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5066,14 +5090,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5082,31 +5106,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5115,31 +5139,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>294</v>
+        <v>21</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>295</v>
+        <v>34</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5148,31 +5172,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>298</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>299</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5181,14 +5205,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>280</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5198,14 +5222,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>301</v>
+        <v>194</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5214,14 +5238,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>23</v>
+        <v>302</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5231,14 +5255,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5268,10 +5292,10 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>107</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5280,14 +5304,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5297,14 +5321,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>308</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5313,14 +5337,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5330,11 +5354,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5353,7 +5377,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>313</v>
+        <v>18</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5363,14 +5387,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5379,14 +5403,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5396,14 +5420,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>21</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5412,14 +5436,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>320</v>
+        <v>21</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5429,14 +5453,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5445,14 +5469,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>131</v>
+        <v>321</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5462,14 +5486,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>160</v>
+        <v>322</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5485,7 +5509,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5518,7 +5542,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>131</v>
+        <v>328</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5528,14 +5552,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>175</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5544,14 +5568,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5561,11 +5585,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5577,14 +5601,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5594,11 +5618,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>21</v>
@@ -5610,14 +5634,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5627,11 +5651,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>234</v>
+        <v>82</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>322</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>21</v>
@@ -5643,14 +5667,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>280</v>
+        <v>21</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5660,11 +5684,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>301</v>
+        <v>144</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>302</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>21</v>
@@ -5676,14 +5700,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5693,49 +5717,148 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>160</v>
+        <v>338</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>161</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>7206.9449999999997</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>335</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
-        <v>336</v>
-      </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
-        <v>337</v>
-      </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>340</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>21</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>55</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>242</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>330</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>341</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>288</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>55</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>309</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>342</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>21</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>55</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>165</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>7422.4049999999997</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>343</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>344</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>345</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6359,10 +6482,25 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -440,6 +440,12 @@
     <t>90.00</t>
   </si>
   <si>
+    <t>FUNGICARE SOAP 80 GM</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -551,9 +557,6 @@
     <t>IMMULANT N SYRUP 120 ML</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>INDOMETHACIN 100 MG 10 SUPP. B.P.2014</t>
   </si>
   <si>
@@ -596,6 +599,12 @@
     <t>60.00</t>
   </si>
   <si>
+    <t>LAMIFEN 125MG 14 TAB</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -1040,7 +1049,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 9 June, 2025 11:46 PM</t>
+    <t>Monday, 9 June, 2025 11:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2968,7 +2977,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2978,11 +2987,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2994,14 +3003,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3011,14 +3020,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3027,7 +3036,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3044,11 +3053,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3060,14 +3069,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3077,11 +3086,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3093,14 +3102,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3110,14 +3119,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3126,14 +3135,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3143,11 +3152,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3159,28 +3168,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3192,7 +3201,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3205,15 +3214,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3225,28 +3234,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3258,28 +3267,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3291,14 +3300,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3308,11 +3317,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3324,7 +3333,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3341,14 +3350,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3364,13 +3373,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3378,10 +3387,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3390,28 +3399,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3423,14 +3432,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3440,11 +3449,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3463,7 +3472,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3473,11 +3482,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3489,7 +3498,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3506,11 +3515,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3522,14 +3531,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3539,11 +3548,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3555,14 +3564,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3572,14 +3581,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3588,14 +3597,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3605,14 +3614,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3621,14 +3630,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3638,11 +3647,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3654,14 +3663,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3671,11 +3680,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3687,14 +3696,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3704,11 +3713,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3720,14 +3729,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3737,11 +3746,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3753,14 +3762,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3770,14 +3779,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3786,14 +3795,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3803,14 +3812,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3819,31 +3828,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3852,14 +3861,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3869,14 +3878,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3885,31 +3894,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3918,14 +3927,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3935,11 +3944,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3951,14 +3960,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3968,14 +3977,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3984,28 +3993,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -4017,7 +4026,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4034,14 +4043,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4050,28 +4059,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>122</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4083,14 +4092,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4100,11 +4109,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4116,7 +4125,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4133,11 +4142,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>69</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4156,7 +4165,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4166,14 +4175,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4182,14 +4191,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4199,14 +4208,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>69</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4215,14 +4224,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4232,11 +4241,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4248,14 +4257,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4265,14 +4274,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4281,7 +4290,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4298,14 +4307,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4314,14 +4323,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4331,11 +4340,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4347,14 +4356,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4364,11 +4373,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4380,7 +4389,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4397,11 +4406,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4413,14 +4422,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4430,11 +4439,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4446,7 +4455,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4463,11 +4472,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4479,14 +4488,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4496,14 +4505,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>116</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>50</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4512,14 +4521,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4529,14 +4538,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4552,7 +4561,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4562,14 +4571,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>116</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4578,14 +4587,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4595,14 +4604,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4611,14 +4620,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4628,11 +4637,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4644,14 +4653,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4661,14 +4670,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4677,14 +4686,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4694,11 +4703,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4710,7 +4719,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4727,11 +4736,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4743,14 +4752,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4760,14 +4769,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>189</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4776,14 +4785,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4793,11 +4802,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4809,14 +4818,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4826,14 +4835,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>69</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4842,14 +4851,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4859,11 +4868,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4875,14 +4884,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4892,14 +4901,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4915,7 +4924,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>281</v>
+        <v>131</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4925,11 +4934,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4941,14 +4950,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4958,14 +4967,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>28</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4981,7 +4990,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4991,14 +5000,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>284</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5014,7 +5023,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>286</v>
+        <v>115</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5024,14 +5033,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>288</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5040,7 +5049,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5057,14 +5066,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>290</v>
+        <v>222</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5073,14 +5082,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5090,14 +5099,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>291</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5106,14 +5115,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>294</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5123,11 +5132,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5139,14 +5148,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5156,11 +5165,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>297</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5172,14 +5181,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>107</v>
+        <v>297</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5189,11 +5198,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5212,24 +5221,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>300</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5245,24 +5254,24 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>302</v>
+        <v>107</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5271,7 +5280,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5288,14 +5297,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>305</v>
+        <v>195</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>307</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5304,14 +5313,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5321,14 +5330,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>310</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5337,14 +5346,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5354,14 +5363,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q118" s="12">
         <v>310</v>
-      </c>
-      <c t="s" r="Q118" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5370,14 +5379,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5387,14 +5396,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5410,7 +5419,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5420,14 +5429,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>316</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5436,14 +5445,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5453,14 +5462,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5469,14 +5478,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>321</v>
+        <v>18</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5486,14 +5495,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>131</v>
+        <v>319</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5502,7 +5511,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5519,11 +5528,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>21</v>
@@ -5535,14 +5544,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5552,11 +5561,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>131</v>
@@ -5568,14 +5577,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5585,11 +5594,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>165</v>
+        <v>328</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>166</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5601,14 +5610,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>135</v>
+        <v>331</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5618,14 +5627,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5634,7 +5643,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5651,11 +5660,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>21</v>
@@ -5667,14 +5676,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5684,11 +5693,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>144</v>
+        <v>336</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>145</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>21</v>
@@ -5700,14 +5709,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5717,11 +5726,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>338</v>
+        <v>82</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>339</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>21</v>
@@ -5733,7 +5742,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5750,11 +5759,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>242</v>
+        <v>146</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>330</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>21</v>
@@ -5766,14 +5775,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5783,11 +5792,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>21</v>
@@ -5799,7 +5808,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5816,49 +5825,115 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>166</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>7422.4049999999997</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>343</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
         <v>344</v>
       </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>291</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>55</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>312</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
         <v>345</v>
       </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>21</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>55</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>167</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>7550.4049999999997</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
+        <v>346</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
+        <v>347</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>348</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6497,10 +6572,20 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-09_00-00.xlsx
+++ b/DaySale_2025-06-09_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 12:06 AM</t>
+    <t>Tuesday, 10 June, 2025 12:11 AM</t>
   </si>
   <si>
     <t>1/1</t>
